--- a/open_coesione/static/xls/2_Target_Risultati_20131231.xlsx
+++ b/open_coesione/static/xls/2_Target_Risultati_20131231.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12645"/>
@@ -9,11 +9,10 @@
   <sheets>
     <sheet name="Target risultati spesa certific" sheetId="1" r:id="rId1"/>
     <sheet name="Metadati" sheetId="5" r:id="rId2"/>
-    <sheet name="Note" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Metadati!$A$1:$C$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Metadati!$A$1:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Metadati!$A$1:$C$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Metadati!$A$1:$C$14</definedName>
     <definedName name="IDX" localSheetId="1">Metadati!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725" iterateDelta="252"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="159">
   <si>
     <t>2007IT161PO001</t>
   </si>
@@ -353,9 +352,6 @@
     <t>Codice identificativo del Programma cui fa riferimento il progetto</t>
   </si>
   <si>
-    <t>Variabile</t>
-  </si>
-  <si>
     <t>Descrizione</t>
   </si>
   <si>
@@ -363,9 +359,6 @@
   </si>
   <si>
     <t>DPS_CODICE_PROGRAMMA</t>
-  </si>
-  <si>
-    <t>Il programma è lo strumento attuativo con cui, nell'ambito del quadro di programmazione di ciascun periodo, le amministrazioni responsabili della gestione delle risorse definiscono le linee di intervento da finanziare. Per la programmazione cofinanziata con Fondi Strutturali Comunitari sono i Programmi Operativi Regionali, Nazionali e Interregionali. Nel caso del Fondo Sviluppo e Coesione, la programmazione può essere di livello regionale o nazionale e gli strumenti sono molteplici: da un  Programma di Attuazione Regionale (PAR), a un'ambito di intervento settoriale definito nel quadro di una delibera CIPE (che può coinvolgere responsabilità gestionali multiple ma tutte indirizzate a una stessa finalità),ma anche singoli progetti speciali. Tipicamente la programmazione regionale del FSC si avvale di Intese e/o Accordi di Programma Quadro, cfr. Glossario DPS.</t>
   </si>
   <si>
     <t>DPS_DESCRIZIONE_PROGRAMMA</t>
@@ -396,21 +389,6 @@
 - Fondo Sociale Europeo (FSE): destinato a sostenere l’occupazione negli Stati membri e per promuovere la coesione economica e sociale.</t>
   </si>
   <si>
-    <t>TARGET 20101231</t>
-  </si>
-  <si>
-    <t>TARGET 20111031</t>
-  </si>
-  <si>
-    <t>TARGET 20111231</t>
-  </si>
-  <si>
-    <t>TARGET 20120531</t>
-  </si>
-  <si>
-    <t>TARGET 20121031</t>
-  </si>
-  <si>
     <t>RISULTATO 20101231</t>
   </si>
   <si>
@@ -426,119 +404,143 @@
     <t>RISULTATO 20121031</t>
   </si>
   <si>
-    <t>STIMA TARGET 20141231</t>
-  </si>
-  <si>
-    <t>STIMA TARGET 20151231</t>
-  </si>
-  <si>
-    <t>TARGET YYYYMMDD</t>
-  </si>
-  <si>
     <t>RISULTATO YYYYMMDD</t>
   </si>
   <si>
-    <t>STIMA TARGET YYYYMMDD</t>
-  </si>
-  <si>
     <t>Valore obiettivo per la spesa certificata alla data YYYYMMDD</t>
   </si>
   <si>
     <t>Valore raggiunto per la spesa certificata alla data YYYYMMDD</t>
   </si>
   <si>
-    <t>Stima del valore obiettivo per la spesa certificata alla data YYYYMMDD</t>
-  </si>
-  <si>
-    <t>TARGET 20121231</t>
-  </si>
-  <si>
     <t>RISULTATO 20121231</t>
   </si>
   <si>
-    <t>TARGET 20130531</t>
-  </si>
-  <si>
     <t>RISULTATO 20130531</t>
   </si>
   <si>
-    <t>STIMA TARGET 20140531</t>
-  </si>
-  <si>
-    <t>STIMA TARGET 20141031</t>
-  </si>
-  <si>
-    <t>STIMA TARGET 20150531</t>
-  </si>
-  <si>
-    <t>STIMA TARGET 20151031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distanza dagli obiettivi </t>
-  </si>
-  <si>
-    <t>(in percentuale sui target)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importo  da riprogrammare </t>
-  </si>
-  <si>
-    <t>fino al 5%</t>
-  </si>
-  <si>
-    <t>superiore al 5% e fino al 10%</t>
-  </si>
-  <si>
-    <t>superiore a 10% e fino a 20%</t>
-  </si>
-  <si>
-    <t>superiore a 20% e fino a 30%</t>
-  </si>
-  <si>
-    <t>oltre 30%</t>
-  </si>
-  <si>
-    <t>Il mancato raggiungimento dei target delle spese certificate, di maggio ottobre e dicembre singolarmente considerati,</t>
-  </si>
-  <si>
-    <t>comporterà la quantificazione di un importo da riprogrammare calcolata sulla soglia annuale e graduata in ragione</t>
-  </si>
-  <si>
-    <t>della distanza dal target come di seguito specificato:</t>
-  </si>
-  <si>
-    <t>NOTE SUL RAGGIUNGIMENTO DEI TARGET</t>
-  </si>
-  <si>
-    <t>Sono previste eccezioni alla riprogrammazione di cui sopra nei casi in cui un Programma operativo</t>
-  </si>
-  <si>
-    <t>fosse in fase di riprogrammazione e/o adesione al Piano d'Azione Coesione e altre cause di forza maggiore.</t>
-  </si>
-  <si>
-    <t>I valori sono riportati come percentuali cumulate di avanzamento della spesa certificata alla Commissione UE rispetto alla dotazione complessiva di ciascun Programma. I target e le relative stime sono calcolati:
-- per le scadenze al 31 dicembre sulla base del piano finanziario del Programma, come da decisione della Commissione europea, considerando gli importi relativi alle annualità del piano fino al 31 dicembre di due anni prima,
-- per le scadenze infra-annuali in base ad appropriate percentuali dei target al 31 dicembre dell'anno di riferimento, 
-- a partire dal 2013 anche per le scadenze al 31 dicembre si adottano gli stessi criteri di calcolo dei target infra-annuali.                                                                                             I target sono riferiti alle scadenze fino a quella corrispondente alla data di aggiornamento del file, mentre le stime dei target sono riferite alla scadenze successive.
-I risultati corrispondono ai valori effettivi di spesa certificata.</t>
-  </si>
-  <si>
     <t>RISULTATO 20131031</t>
   </si>
   <si>
-    <t>TARGET 20131031</t>
-  </si>
-  <si>
     <t>RISULTATO 20131231</t>
   </si>
   <si>
-    <t>TARGET 20131231</t>
+    <t>TARGET UE 20131231</t>
+  </si>
+  <si>
+    <t>TARGET UE YYYYMMDD</t>
+  </si>
+  <si>
+    <t>Valore obiettivo per la spesa certificata alla data YYYYMMDD necessaria per evitare il disimpegno di risorse UE</t>
+  </si>
+  <si>
+    <t>Variabile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il Programma è lo strumento attuativo con cui, nell'ambito del quadro di programmazione di ciascun periodo, le amministrazioni responsabili della gestione delle risorse definiscono le linee di intervento da finanziare. Per la programmazione cofinanziata con Fondi Strutturali Comunitari sono i Programmi Operativi Regionali, Nazionali e Interregionali. </t>
+  </si>
+  <si>
+    <t>TARGET UE 20141231</t>
+  </si>
+  <si>
+    <t>TARGET UE 20101231</t>
+  </si>
+  <si>
+    <t>TARGET UE 20111231</t>
+  </si>
+  <si>
+    <t>TARGET UE 20121231</t>
+  </si>
+  <si>
+    <t>I risultati sono espressi come percentuali cumulate di avanzamento della spesa certificata alla Commissione UE rispetto alla dotazione complessiva di ciascun Programma e corrispondono ai valori effettivi di spesa certificata, cioè all'ammontare delle richieste di rimborso presentate alla Commissione Europea dalle Amministrazioni titolari dei Programmi.</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE YYYYMMDD</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20111031</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20120531</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20121031</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20130531</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20131031</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20131231</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20140531</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20141031</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20141231</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20150531</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20151031</t>
+  </si>
+  <si>
+    <t>TARGET UE 20151231</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20111231</t>
+  </si>
+  <si>
+    <t>TARGET NAZIONALE 20121231</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I valori target (UE e nazionali) sono espressi come percentuali cumulate di avanzamento della spesa certificata alla Commissione UE rispetto alla dotazione complessiva di ciascun Programma.
+I target UE si riferiscono al 31 dicembre di ciascun anno e sono calcolati sulla base del piano finanziario del Programma, come da decisione della Commissione Europea, considerando gli importi relativi alle annualità del piano fino al 31 dicembre di due anni prima. 
+I target nazionali, introdotti a partire da ottobre 2011, si riferiscono al 31 maggio, 31 ottobre e 31 dicembre di ciascun anno e sono calcolati:
+- per le scadenze annuali fino al 31 dicembre 2012, sulla base delle regole UE
+- per le scadenze infra-annuali in base ad appropriate percentuali dei target al 31 dicembre dell'anno di riferimento (percentuali stabilite con decisione del Comitato QSN)
+- per le scadenze annuali dal 2013 con gli stessi criteri di calcolo dei target infra-annuali.                                                                                            
+Il mancato raggiungimento dei target UE comporta il disimpegno automatico di risorse, cioè la riduzione del finanziamento comunitario e del corrispondente cofinanziamento nazionale del Programma. 
+Il mancato raggiungimento dei target nazionali comporta la riprogrammazione di un importo calcolato sulla soglia annuale (cioè l'importo minimo aggiuntivo da certificare alla Commissione nell'anno di riferimento per raggiungere il target UE) e graduato in ragione della distanza dal target come di seguito specificato:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Distanza dagli obiettivi (% del target)            Importo da riprogrammare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+fino al 5%                                                               0% 
+superiore al 5% e fino al 10%                           15% 
+superiore al 10% e fino al 20%                         30%
+superiore al 20% e fino al 30%                         40%
+oltre 30%                                                               60%
+Fanno eccezione i casi in cui un Programma operativo sia già in fase di riprogrammazione e/o adesione al Piano d'Azione Coesione o altre cause di forza maggiore.
+I target riferiti alle scadenze successive alla data di aggiornamento del file sono da considerare come stime che potrebbero variare in funzione di deroghe concesse dall'UE o di altre particolari condizioni.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-410]\ * #,##0.0000_-;\-[$€-410]\ * #,##0.0000_-;_-[$€-410]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -546,7 +548,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,13 +586,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -615,11 +610,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -643,12 +637,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -676,17 +670,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -754,94 +737,296 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -885,7 +1070,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -908,14 +1093,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -953,7 +1138,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -976,14 +1161,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1075,6 +1260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1109,6 +1295,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1284,5823 +1471,6313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
     <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.28515625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.7109375" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" customWidth="1"/>
+    <col min="29" max="31" width="12.7109375" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" customWidth="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:41" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="23" t="s">
+      <c r="L1" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="N1" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="24" t="s">
+      <c r="S1" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="24" t="s">
+      <c r="U1" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" s="24" t="s">
+      <c r="W1" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y1" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>134</v>
+      <c r="Z1" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="38">
         <v>0.3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="39">
         <v>1.8</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="43">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="39">
         <v>3.4</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="38">
         <v>13.6</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="17">
+        <v>13.6</v>
+      </c>
+      <c r="K2" s="39">
         <v>13.7</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="43">
         <v>13.6</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="39">
         <v>13.7</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="43">
         <v>16.062939643280043</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="39">
         <v>17.206210847942753</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="38">
         <v>24.03773314183131</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="17">
+        <v>24.03773314183131</v>
+      </c>
+      <c r="R2" s="39">
         <v>24.353429228980325</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="43">
         <v>31.125776583594412</v>
       </c>
-      <c r="R2" s="3">
+      <c r="T2" s="39">
         <v>30.296803912190082</v>
       </c>
-      <c r="S2" s="2">
+      <c r="U2" s="43">
         <v>42.879734467984399</v>
       </c>
-      <c r="T2" s="3">
+      <c r="V2" s="39">
         <v>43.211721971685144</v>
       </c>
-      <c r="U2" s="2">
+      <c r="W2" s="38">
+        <v>50.173176158480942</v>
+      </c>
+      <c r="X2" s="17">
         <v>51.255804046075745</v>
       </c>
-      <c r="V2" s="3">
+      <c r="Y2" s="39">
         <v>50.633640552995395</v>
       </c>
-      <c r="W2" s="4">
+      <c r="Z2" s="34">
         <v>61.541415216250527</v>
       </c>
-      <c r="X2" s="4">
+      <c r="AA2" s="17">
         <v>70.227574429130655</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="AB2" s="1">
+        <v>72.91476225402505</v>
+      </c>
+      <c r="AC2" s="17">
         <v>75.53976225402505</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="AD2" s="17">
         <v>88.24885735241503</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AE2" s="17">
         <v>98.104033357781759</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AF2" s="24">
         <v>100</v>
       </c>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
     </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="38">
         <v>8.5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="39">
         <v>9</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="43">
         <v>17.289002822890779</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="39">
         <v>19.399999999999999</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="38">
         <v>24.7</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K3" s="39">
         <v>25.4</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="43">
         <v>25.4</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="39">
         <v>25.4</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="43">
         <v>32.00320951772116</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="39">
         <v>32.350993805157799</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="38">
         <v>38.341162268412567</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="17">
+        <v>38.341162268412567</v>
+      </c>
+      <c r="R3" s="39">
         <v>38.65520603298863</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="43">
         <v>45.503367459593392</v>
       </c>
-      <c r="R3" s="3">
+      <c r="T3" s="39">
         <v>48.169161553748026</v>
       </c>
-      <c r="S3" s="2">
+      <c r="U3" s="43">
         <v>52.636534119662954</v>
       </c>
-      <c r="T3" s="3">
+      <c r="V3" s="39">
         <v>53.148733407022654</v>
       </c>
-      <c r="U3" s="2">
+      <c r="W3" s="38">
+        <v>58.016830392970533</v>
+      </c>
+      <c r="X3" s="17">
         <v>59.141830392651606</v>
       </c>
-      <c r="V3" s="3">
+      <c r="Y3" s="39">
         <v>59.550281074328545</v>
       </c>
-      <c r="W3" s="4">
+      <c r="Z3" s="34">
         <v>64.716559436257839</v>
       </c>
-      <c r="X3" s="4">
+      <c r="AA3" s="17">
         <v>71.928788550169287</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="AB3" s="1">
+        <v>75.109903194196463</v>
+      </c>
+      <c r="AC3" s="17">
         <v>77.734903194196463</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AD3" s="17">
         <v>89.565941916517872</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AE3" s="17">
         <v>98.257693223593762</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AF3" s="24">
         <v>100</v>
       </c>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
     </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="39">
         <v>3.7</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="43">
         <v>14.6</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="39">
         <v>4.3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="38">
         <v>16.5</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="K4" s="39">
         <v>16.600000000000001</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="43">
         <v>21.1</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="39">
         <v>21.3</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="43">
         <v>25.89712823183757</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="39">
         <v>25.299872784816291</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="38">
         <v>36.824697048446751</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="17">
+        <v>36.824697048446751</v>
+      </c>
+      <c r="R4" s="39">
         <v>36.873615210280569</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="43">
         <v>40.329626894524367</v>
       </c>
-      <c r="R4" s="3">
+      <c r="T4" s="39">
         <v>40.857366350899973</v>
       </c>
-      <c r="S4" s="2">
+      <c r="U4" s="43">
         <v>46.920191288006016</v>
       </c>
-      <c r="T4" s="3">
+      <c r="V4" s="39">
         <v>51.083336464788182</v>
       </c>
-      <c r="U4" s="2">
+      <c r="W4" s="38">
         <v>53.3182359071658</v>
       </c>
-      <c r="V4" s="3">
+      <c r="X4" s="17">
+        <v>53.3182359071658</v>
+      </c>
+      <c r="Y4" s="39">
         <v>54.003553268394292</v>
       </c>
-      <c r="W4" s="4">
+      <c r="Z4" s="34">
         <v>62.030242233660125</v>
       </c>
-      <c r="X4" s="4">
+      <c r="AA4" s="17">
         <v>69.05520724613767</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="AB4" s="1">
+        <v>71.799423452342509</v>
+      </c>
+      <c r="AC4" s="17">
         <v>74.443227528393848</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AD4" s="17">
         <v>87.611889630350632</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AE4" s="17">
         <v>98.025959641663974</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AF4" s="24">
         <v>100</v>
       </c>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
     </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="38">
         <v>15</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="39">
         <v>15.5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="43">
         <v>24.668408137701732</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="39">
         <v>25.3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="38">
         <v>35.200000000000003</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="17">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="K5" s="39">
         <v>35.700000000000003</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="43">
         <v>38.6</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="39">
         <v>39.1</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="43">
         <v>46.531237770928314</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="39">
         <v>47.115627295181397</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="38">
         <v>53.231454288266256</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="17">
+        <v>53.231454288266256</v>
+      </c>
+      <c r="R5" s="39">
         <v>53.626819079088548</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="43">
         <v>59.269962149164947</v>
       </c>
-      <c r="R5" s="3">
+      <c r="T5" s="39">
         <v>59.245049887272714</v>
       </c>
-      <c r="S5" s="2">
+      <c r="U5" s="43">
         <v>65.867841780599775</v>
       </c>
-      <c r="T5" s="3">
+      <c r="V5" s="39">
         <v>66.510968962357055</v>
       </c>
-      <c r="U5" s="2">
+      <c r="W5" s="38">
+        <v>68.839565175101896</v>
+      </c>
+      <c r="X5" s="17">
         <v>69.96456517225451</v>
       </c>
-      <c r="V5" s="3">
+      <c r="Y5" s="39">
         <v>71.49503722084367</v>
       </c>
-      <c r="W5" s="4">
+      <c r="Z5" s="34">
         <v>73.661604167320036</v>
       </c>
-      <c r="X5" s="4">
+      <c r="AA5" s="17">
         <v>79.101993011402143</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="AB5" s="1">
+        <v>81.963811538713614</v>
+      </c>
+      <c r="AC5" s="17">
         <v>84.588811538713614</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AD5" s="17">
         <v>93.678286923228214</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AE5" s="17">
         <v>98.737466807710049</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AF5" s="24">
         <v>100</v>
       </c>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
     </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="38">
         <v>8.5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="39">
         <v>9.5</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="43">
         <v>13.2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="39">
         <v>17.5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="38">
         <v>18.399999999999999</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="17">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K6" s="39">
         <v>20.5</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="43">
         <v>20.3</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="39">
         <v>22.3</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="43">
         <v>24.51671727522606</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="39">
         <v>25.411687306910569</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="38">
         <v>33.348283584199443</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="17">
+        <v>33.348283584199443</v>
+      </c>
+      <c r="R6" s="39">
         <v>33.86005272670419</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="43">
         <v>37.848867925374144</v>
       </c>
-      <c r="R6" s="3">
+      <c r="T6" s="39">
         <v>38.033648946216381</v>
       </c>
-      <c r="S6" s="2">
+      <c r="U6" s="43">
         <v>48.107174155100083</v>
       </c>
-      <c r="T6" s="3">
+      <c r="V6" s="39">
         <v>48.266177772045019</v>
       </c>
-      <c r="U6" s="2">
+      <c r="W6" s="38">
+        <v>53.370840466381104</v>
+      </c>
+      <c r="X6" s="17">
         <v>54.405750425254922</v>
       </c>
-      <c r="V6" s="3">
+      <c r="Y6" s="39">
         <v>54.706066291432144</v>
       </c>
-      <c r="W6" s="4">
+      <c r="Z6" s="34">
         <v>65.388634637212988</v>
       </c>
-      <c r="X6" s="4">
+      <c r="AA6" s="17">
         <v>72.600863749157952</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="AB6" s="1">
+        <v>75.109903142589118</v>
+      </c>
+      <c r="AC6" s="17">
         <v>77.734903142589118</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AD6" s="17">
         <v>89.565941885553457</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AE6" s="17">
         <v>98.257693219981235</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AF6" s="24">
         <v>100</v>
       </c>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
     </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="38">
         <v>8.5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="39">
         <v>9.6</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="43">
         <v>17.289002730904279</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="39">
         <v>18.7</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="38">
         <v>24.7</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K7" s="39">
         <v>25.7</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="43">
         <v>28</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="39">
         <v>35.799999999999997</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="43">
         <v>36.260043008527227</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="39">
         <v>42.203783645205284</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="38">
         <v>41.214957728644293</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="17">
+        <v>41.214957728644293</v>
+      </c>
+      <c r="R7" s="39">
         <v>45.10985594815773</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="43">
         <v>47.935706716022544</v>
       </c>
-      <c r="R7" s="3">
+      <c r="T7" s="39">
         <v>47.96895410426356</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="43">
         <v>51.524612284370001</v>
       </c>
-      <c r="T7" s="3">
+      <c r="V7" s="39">
         <v>55.922056633234462</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="38">
         <v>58.016830177836511</v>
       </c>
-      <c r="V7" s="3">
+      <c r="X7" s="17">
+        <v>58.016830177836511</v>
+      </c>
+      <c r="Y7" s="39">
         <v>61.939252336448604</v>
       </c>
-      <c r="W7" s="4">
+      <c r="Z7" s="34">
         <v>63.887561903923881</v>
       </c>
-      <c r="X7" s="4">
+      <c r="AA7" s="17">
         <v>70.392381319442038</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="AB7" s="1">
+        <v>75.109903278397596</v>
+      </c>
+      <c r="AC7" s="17">
         <v>77.734903278397596</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AD7" s="17">
         <v>89.565941967038555</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AE7" s="17">
         <v>98.257693229487842</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AF7" s="24">
         <v>100</v>
       </c>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
     </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="38">
         <v>8.5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="39">
         <v>27.7</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="43">
         <v>17.289002691791246</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="39">
         <v>39.200000000000003</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="38">
         <v>24.7</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K8" s="39">
         <v>42.3</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="43">
         <v>41.2</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="39">
         <v>46.3</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="43">
         <v>41.214957533126345</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="39">
         <v>51.051834974280197</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="38">
         <v>41.214957533126345</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="17">
+        <v>41.214957533126345</v>
+      </c>
+      <c r="R8" s="39">
         <v>52.76749701862704</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="43">
         <v>52.767497019300023</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="39">
         <v>57.802766862372764</v>
       </c>
-      <c r="S8" s="2">
+      <c r="U8" s="43">
         <v>52.767497019300023</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="39">
         <v>61.629644189066276</v>
       </c>
-      <c r="U8" s="2">
+      <c r="W8" s="38">
         <v>58.016830188871438</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="17">
+        <v>58.016830188871438</v>
+      </c>
+      <c r="Y8" s="39">
         <v>65.495659196446596</v>
       </c>
-      <c r="W8" s="4">
+      <c r="Z8" s="34">
         <v>65.496776035454047</v>
       </c>
-      <c r="X8" s="4">
+      <c r="AA8" s="17">
         <v>67.671874349001754</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="AB8" s="1">
+        <v>75.109903067998317</v>
+      </c>
+      <c r="AC8" s="17">
         <v>77.734903067998317</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AD8" s="17">
         <v>89.565941840798985</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AE8" s="17">
         <v>98.257693214759897</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AF8" s="24">
         <v>100</v>
       </c>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
     </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="38">
         <v>8.5</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="39">
         <v>9.6</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="43">
         <v>17.289002334027202</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="39">
         <v>13</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="38">
         <v>24.7</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K9" s="39">
         <v>25.1</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="43">
         <v>27.6</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="39">
         <v>28.4</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="43">
         <v>35.839208570014335</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="39">
         <v>36.736750594483148</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="38">
         <v>41.214956316801867</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="17">
+        <v>41.214956316801867</v>
+      </c>
+      <c r="R9" s="39">
         <v>41.357795138943843</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="43">
         <v>47.518707726142679</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="39">
         <v>46.351751167733561</v>
       </c>
-      <c r="S9" s="2">
+      <c r="U9" s="43">
         <v>54.846617946015648</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="39">
         <v>52.615850479307767</v>
       </c>
-      <c r="U9" s="2">
+      <c r="W9" s="38">
+        <v>58.016828925149071</v>
+      </c>
+      <c r="X9" s="17">
         <v>59.14182892422857</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Y9" s="39">
         <v>58.180669614655713</v>
       </c>
-      <c r="W9" s="4">
+      <c r="Z9" s="34">
         <v>66.531785047979213</v>
       </c>
-      <c r="X9" s="4">
+      <c r="AA9" s="17">
         <v>73.744014271489633</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="AB9" s="1">
+        <v>75.10990203139626</v>
+      </c>
+      <c r="AC9" s="17">
         <v>77.73490203139626</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AD9" s="17">
         <v>89.56594121883775</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AE9" s="17">
         <v>98.257693142197738</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AF9" s="24">
         <v>100</v>
       </c>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
     </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="38">
         <v>8.5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="39">
         <v>23.7</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="43">
         <v>17.289002665874044</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="39">
         <v>39.299999999999997</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="38">
         <v>24.7</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K10" s="39">
         <v>45.6</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="43">
         <v>41.2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="39">
         <v>48</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="43">
         <v>41.214957708973706</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="39">
         <v>56.166319870103202</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="38">
         <v>41.214957708973706</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="17">
+        <v>41.214957708973706</v>
+      </c>
+      <c r="R10" s="39">
         <v>59.435265864895648</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="43">
         <v>56.104646593501904</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="39">
         <v>58.415576808301438</v>
       </c>
-      <c r="S10" s="2">
+      <c r="U10" s="43">
         <v>56.104646578085649</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="39">
         <v>65.740776858448982</v>
       </c>
-      <c r="U10" s="2">
+      <c r="W10" s="38">
         <v>56.104646587945844</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="17">
+        <v>56.104646587945844</v>
+      </c>
+      <c r="Y10" s="39">
         <v>68.389990557129366</v>
       </c>
-      <c r="W10" s="4">
+      <c r="Z10" s="34">
         <v>68.388001695701561</v>
       </c>
-      <c r="X10" s="4">
+      <c r="AA10" s="17">
         <v>68.388001695701561</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="AB10" s="1">
+        <v>70.900912649081945</v>
+      </c>
+      <c r="AC10" s="17">
         <v>73.378813525145873</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AD10" s="17">
         <v>86.788377662701578</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AE10" s="17">
         <v>97.963063885435744</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AF10" s="24">
         <v>100</v>
       </c>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
     </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="38">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="39">
         <v>17.100000000000001</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="43">
         <v>17.67674324039908</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="39">
         <v>25.3</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="38">
         <v>25.3</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="17">
+        <v>25.3</v>
+      </c>
+      <c r="K11" s="39">
         <v>27.1</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="43">
         <v>28.5</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="39">
         <v>37.9</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="43">
         <v>36.717022854667761</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="39">
         <v>45.714103612006987</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="38">
         <v>41.630393919664179</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="17">
+        <v>41.630393919664179</v>
+      </c>
+      <c r="R11" s="39">
         <v>49.026170104362663</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="S11" s="43">
         <v>49.427276176640916</v>
       </c>
-      <c r="R11" s="3">
+      <c r="T11" s="39">
         <v>49.427276170984555</v>
       </c>
-      <c r="S11" s="2">
+      <c r="U11" s="43">
         <v>49.427276315694456</v>
       </c>
-      <c r="T11" s="3">
+      <c r="V11" s="39">
         <v>65.36651772221694</v>
       </c>
-      <c r="U11" s="2">
+      <c r="W11" s="38">
         <v>58.770717315280898</v>
       </c>
-      <c r="V11" s="3">
+      <c r="X11" s="17">
+        <v>58.770717315280898</v>
+      </c>
+      <c r="Y11" s="39">
         <v>69.109286165508522</v>
       </c>
-      <c r="W11" s="4">
+      <c r="Z11" s="34">
         <v>69.096907274693621</v>
       </c>
-      <c r="X11" s="4">
+      <c r="AA11" s="17">
         <v>69.096907274693621</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="AB11" s="1">
         <v>75.864024583496871</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AC11" s="17">
+        <v>75.864024583496871</v>
+      </c>
+      <c r="AD11" s="17">
         <v>90.055231371133317</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AE11" s="17">
         <v>98.310481720844777</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AF11" s="24">
         <v>100</v>
       </c>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
     </row>
-    <row r="12" spans="1:37">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="38">
         <v>8.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="39">
         <v>12.1</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="43">
         <v>17.289002689730179</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="39">
         <v>18.100000000000001</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="38">
         <v>24.7</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K12" s="39">
         <v>27.4</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="43">
         <v>28</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="39">
         <v>28.1</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="43">
         <v>36.260042863690103</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="39">
         <v>36.780411816662522</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="38">
         <v>41.21495754625311</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="17">
+        <v>41.21495754625311</v>
+      </c>
+      <c r="R12" s="39">
         <v>41.312369430367774</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="S12" s="43">
         <v>48.302011369662189</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="39">
         <v>44.929693648299697</v>
       </c>
-      <c r="S12" s="2">
+      <c r="U12" s="43">
         <v>55.731692614231164</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="39">
         <v>56.359454877940728</v>
       </c>
-      <c r="U12" s="2">
+      <c r="W12" s="38">
+        <v>58.460170820286301</v>
+      </c>
+      <c r="X12" s="17">
         <v>59.593767606502887</v>
       </c>
-      <c r="V12" s="3">
+      <c r="Y12" s="39">
         <v>58.658453114305267</v>
       </c>
-      <c r="W12" s="4">
+      <c r="Z12" s="34">
         <v>67.421718858138661</v>
       </c>
-      <c r="X12" s="4">
+      <c r="AA12" s="17">
         <v>74.689060880615401</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="AB12" s="1">
+        <v>75.683861829789507</v>
+      </c>
+      <c r="AC12" s="17">
         <v>78.328920994952838</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AD12" s="17">
         <v>89.94470423815369</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AE12" s="17">
         <v>98.297870328085267</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AF12" s="24">
         <v>100</v>
       </c>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
     </row>
-    <row r="13" spans="1:37">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="38">
         <v>8.5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="39">
         <v>12.9</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="43">
         <v>17.289002711221926</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="39">
         <v>24.4</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="38">
         <v>24.7</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K13" s="39">
         <v>24.9</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="43">
         <v>28</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="39">
         <v>29.9</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="43">
         <v>36.255191873362072</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="39">
         <v>36.792944488150006</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="38">
         <v>41.214957503316242</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="17">
+        <v>41.214957503316242</v>
+      </c>
+      <c r="R13" s="39">
         <v>42.124631952877415</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="S13" s="43">
         <v>48.354170085797698</v>
       </c>
-      <c r="R13" s="3">
+      <c r="T13" s="39">
         <v>48.164468530259349</v>
       </c>
-      <c r="S13" s="2">
+      <c r="U13" s="43">
         <v>54.972521268677248</v>
       </c>
-      <c r="T13" s="3">
+      <c r="V13" s="39">
         <v>56.470696144172642</v>
       </c>
-      <c r="U13" s="2">
+      <c r="W13" s="38">
+        <v>58.52329924846201</v>
+      </c>
+      <c r="X13" s="17">
         <v>59.65812014321294</v>
       </c>
-      <c r="V13" s="3">
+      <c r="Y13" s="39">
         <v>58.769466428389073</v>
       </c>
-      <c r="W13" s="4">
+      <c r="Z13" s="34">
         <v>67.443417153764145</v>
       </c>
-      <c r="X13" s="4">
+      <c r="AA13" s="17">
         <v>74.71860669046707</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="AB13" s="1">
+        <v>75.765588866240279</v>
+      </c>
+      <c r="AC13" s="17">
         <v>78.413504280656497</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AD13" s="17">
         <v>89.998636887314831</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AE13" s="17">
         <v>98.303591220636847</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AF13" s="24">
         <v>100</v>
       </c>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
     </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="38">
         <v>8.5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="39">
         <v>20.8</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="43">
         <v>17.312502228397189</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="39">
         <v>31.6</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="38">
         <v>24.7</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K14" s="39">
         <v>36.4</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="43">
         <v>36.4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="39">
         <v>36.4</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="43">
         <v>36.40313042788685</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="39">
         <v>47.545547162907269</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="38">
         <v>41.25297459573504</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="17">
+        <v>41.25297459573504</v>
+      </c>
+      <c r="R14" s="39">
         <v>51.578778550125314</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="S14" s="43">
         <v>51.69360879984184</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="39">
         <v>51.693608841259703</v>
       </c>
-      <c r="S14" s="2">
+      <c r="U14" s="43">
         <v>51.72287736232532</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="39">
         <v>55.538360973060378</v>
       </c>
-      <c r="U14" s="2">
+      <c r="W14" s="38">
+        <v>58.180748463914313</v>
+      </c>
+      <c r="X14" s="17">
         <v>59.308265891652304</v>
       </c>
-      <c r="V14" s="3">
+      <c r="Y14" s="39">
         <v>60.110524993720169</v>
       </c>
-      <c r="W14" s="4">
+      <c r="Z14" s="34">
         <v>65.356585402775238</v>
       </c>
-      <c r="X14" s="4">
+      <c r="AA14" s="17">
         <v>72.580043123424971</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="AB14" s="1">
+        <v>75.300960113737531</v>
+      </c>
+      <c r="AC14" s="17">
         <v>77.931887666037937</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AD14" s="17">
         <v>89.690737586471769</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AE14" s="17">
         <v>98.271067207961622</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AF14" s="24">
         <v>100</v>
       </c>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
     </row>
-    <row r="15" spans="1:37">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="38">
         <v>8.5</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="39">
         <v>12.7</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="43">
         <v>17.289002744223374</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="39">
         <v>18.100000000000001</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="38">
         <v>24.7</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K15" s="39">
         <v>30.4</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="43">
         <v>30.4</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="39">
         <v>33.5</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="43">
         <v>36.260043514223071</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="39">
         <v>39.530591183077462</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="38">
         <v>41.214958442222738</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="17">
+        <v>41.214958442222738</v>
+      </c>
+      <c r="R15" s="39">
         <v>42.921177147706892</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="S15" s="43">
         <v>48.419945248338102</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="39">
         <v>50.575589594902091</v>
       </c>
-      <c r="S15" s="2">
+      <c r="U15" s="43">
         <v>54.242708144748327</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="39">
         <v>56.150898672273641</v>
       </c>
-      <c r="U15" s="2">
+      <c r="W15" s="38">
+        <v>58.602906622955508</v>
+      </c>
+      <c r="X15" s="17">
         <v>59.739271168745354</v>
       </c>
-      <c r="V15" s="3">
+      <c r="Y15" s="39">
         <v>60.925726587728747</v>
       </c>
-      <c r="W15" s="4">
+      <c r="Z15" s="34">
         <v>65.469510357924037</v>
       </c>
-      <c r="X15" s="4">
+      <c r="AA15" s="17">
         <v>72.754595643427876</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="AB15" s="1">
+        <v>75.868649547099864</v>
+      </c>
+      <c r="AC15" s="17">
         <v>78.520166828207252</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="AD15" s="17">
         <v>90.066647924444013</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AE15" s="17">
         <v>98.310805468296991</v>
       </c>
-      <c r="AB15" s="4">
+      <c r="AF15" s="24">
         <v>100</v>
       </c>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
     </row>
-    <row r="16" spans="1:37">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="38">
         <v>8.5</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="39">
         <v>16.7</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="43">
         <v>17.289005463400322</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="39">
         <v>16.7</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="38">
         <v>24.7</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K16" s="39">
         <v>27.4</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="43">
         <v>27.7</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="39">
         <v>30.8</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="43">
         <v>35.939053221890568</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16" s="39">
         <v>36.042310676243218</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="38">
         <v>41.214962863368591</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Q16" s="17">
+        <v>41.214962863368591</v>
+      </c>
+      <c r="R16" s="39">
         <v>41.937350937319451</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="S16" s="43">
         <v>47.614716840514362</v>
       </c>
-      <c r="R16" s="3">
+      <c r="T16" s="39">
         <v>48.921141946108321</v>
       </c>
-      <c r="S16" s="2">
+      <c r="U16" s="43">
         <v>54.363079367582984</v>
       </c>
-      <c r="T16" s="3">
+      <c r="V16" s="39">
         <v>59.966571309312222</v>
       </c>
-      <c r="U16" s="2">
+      <c r="W16" s="38">
+        <v>58.016834589446084</v>
+      </c>
+      <c r="X16" s="17">
         <v>59.141834597111995</v>
       </c>
-      <c r="V16" s="3">
+      <c r="Y16" s="39">
         <v>60.155490767735664</v>
       </c>
-      <c r="W16" s="4">
+      <c r="Z16" s="34">
         <v>64.658310606091263</v>
       </c>
-      <c r="X16" s="4">
+      <c r="AA16" s="17">
         <v>71.870539599977107</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="AB16" s="1">
+        <v>75.109906678825354</v>
+      </c>
+      <c r="AC16" s="17">
         <v>77.734906678825354</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="AD16" s="17">
         <v>89.565944007295244</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AE16" s="17">
         <v>98.257693467517839</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AF16" s="24">
         <v>100</v>
       </c>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
     </row>
-    <row r="17" spans="1:36">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="38">
         <v>8.5</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="39">
         <v>17.7</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="43">
         <v>17.289002978821735</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="39">
         <v>23.7</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="38">
         <v>24.7</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K17" s="39">
         <v>26.3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="43">
         <v>28</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="39">
         <v>31.5</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="43">
         <v>36.260043652202803</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="39">
         <v>37.964684354295322</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P17" s="38">
         <v>41.214958495704984</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="17">
+        <v>41.214958495704984</v>
+      </c>
+      <c r="R17" s="39">
         <v>41.308548945621553</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="S17" s="43">
         <v>48.45149386509847</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="39">
         <v>46.092580142304158</v>
       </c>
-      <c r="S17" s="2">
+      <c r="U17" s="43">
         <v>55.729977969246377</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="39">
         <v>53.132955928484897</v>
       </c>
-      <c r="U17" s="2">
+      <c r="W17" s="38">
         <v>58.489431245147635</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="17">
+        <v>58.489431245147635</v>
+      </c>
+      <c r="Y17" s="39">
         <v>59.254327563249007</v>
       </c>
-      <c r="W17" s="4">
+      <c r="Z17" s="34">
         <v>67.102452524898482</v>
       </c>
-      <c r="X17" s="4">
+      <c r="AA17" s="17">
         <v>74.392284839102118</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="AB17" s="1">
+        <v>75.918083339549511</v>
+      </c>
+      <c r="AC17" s="17">
         <v>78.571328257837919</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AD17" s="17">
         <v>90.099269863652665</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AE17" s="17">
         <v>98.314265833768474</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AF17" s="24">
         <v>100</v>
       </c>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
     </row>
-    <row r="18" spans="1:36">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="38">
         <v>8.5</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="39">
         <v>23.5</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="43">
         <v>17.28900333762159</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="39">
         <v>40.9</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="38">
         <v>24.7</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K18" s="39">
         <v>40.9</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="43">
         <v>40.9</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="39">
         <v>50.9</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="43">
         <v>40.871827884669614</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="39">
         <v>50.861609088006347</v>
       </c>
-      <c r="O18" s="2">
+      <c r="P18" s="38">
         <v>41.214958661397674</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="17">
+        <v>41.214958661397674</v>
+      </c>
+      <c r="R18" s="39">
         <v>59.203327236590773</v>
       </c>
-      <c r="Q18" s="2">
-        <v>59.558663535389201</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="43">
+        <v>59.558663900275668</v>
+      </c>
+      <c r="T18" s="39">
         <v>69.514637372617926</v>
       </c>
-      <c r="S18" s="2">
-        <v>59.558664020683487</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="43">
+        <v>59.558663900275668</v>
+      </c>
+      <c r="V18" s="39">
         <v>69.514637939035197</v>
       </c>
-      <c r="U18" s="2">
-        <v>59.558664020683487</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="38">
+        <v>59.558663900275668</v>
+      </c>
+      <c r="X18" s="17">
+        <v>59.558663900275668</v>
+      </c>
+      <c r="Y18" s="39">
         <v>78.1868384721583</v>
       </c>
-      <c r="W18" s="4">
+      <c r="Z18" s="34">
         <v>78.220457356995809</v>
       </c>
-      <c r="X18" s="4">
+      <c r="AA18" s="17">
         <v>78.220457356995809</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="AB18" s="1">
         <v>78.220457356995809</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AC18" s="17">
+        <v>78.220457356995809</v>
+      </c>
+      <c r="AD18" s="17">
         <v>88.267587509705862</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AE18" s="17">
         <v>98.287566574015131</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AF18" s="24">
         <v>100</v>
       </c>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
     </row>
-    <row r="19" spans="1:36">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="38">
         <v>8.5</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="39">
         <v>13.5</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="43">
         <v>17.289002641333017</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="39">
         <v>21.5</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="38">
         <v>24.7</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K19" s="39">
         <v>26.6</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="43">
         <v>28</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="39">
         <v>31.6</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="43">
         <v>36.258987296263726</v>
       </c>
-      <c r="N19" s="3">
+      <c r="O19" s="39">
         <v>40.038505200988517</v>
       </c>
-      <c r="O19" s="2">
+      <c r="P19" s="38">
         <v>41.214957499546728</v>
       </c>
-      <c r="P19" s="3">
+      <c r="Q19" s="17">
+        <v>41.214957499546728</v>
+      </c>
+      <c r="R19" s="39">
         <v>44.586832941019622</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="S19" s="43">
         <v>48.259021083089834</v>
       </c>
-      <c r="R19" s="3">
+      <c r="T19" s="39">
         <v>49.472474330196235</v>
       </c>
-      <c r="S19" s="2">
+      <c r="U19" s="43">
         <v>52.38554058989704</v>
       </c>
-      <c r="T19" s="3">
+      <c r="V19" s="39">
         <v>61.25664827141108</v>
       </c>
-      <c r="U19" s="2">
+      <c r="W19" s="38">
         <v>58.408139347041605</v>
       </c>
-      <c r="V19" s="3">
+      <c r="X19" s="17">
+        <v>58.408139347041605</v>
+      </c>
+      <c r="Y19" s="39">
         <v>64.24932574168416</v>
       </c>
-      <c r="W19" s="4">
+      <c r="Z19" s="34">
         <v>65.074720168256036</v>
       </c>
-      <c r="X19" s="4">
+      <c r="AA19" s="17">
         <v>68.976529163445164</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="AB19" s="1">
+        <v>75.616500710780585</v>
+      </c>
+      <c r="AC19" s="17">
         <v>78.259205690529598</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AD19" s="17">
         <v>89.900251820323788</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AE19" s="17">
         <v>98.293155049754631</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AF19" s="24">
         <v>100</v>
       </c>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
     </row>
-    <row r="20" spans="1:36">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="38">
         <v>8.5</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="39">
         <v>10.9</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="43">
         <v>17.289002813373109</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="39">
         <v>24.2</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="38">
         <v>24.7</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K20" s="39">
         <v>30.6</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="43">
         <v>30.6</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="39">
         <v>30.6</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="43">
         <v>36.25753033976688</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="39">
         <v>43.629221257345911</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="38">
         <v>41.214956496091887</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="17">
+        <v>41.214956496091887</v>
+      </c>
+      <c r="R20" s="39">
         <v>43.629221257345911</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="S20" s="43">
         <v>48.305396924062691</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="39">
         <v>54.208164287850167</v>
       </c>
-      <c r="S20" s="2">
+      <c r="U20" s="43">
         <v>53.400877451847535</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="39">
         <v>63.916964908101363</v>
       </c>
-      <c r="U20" s="2">
+      <c r="W20" s="38">
+        <v>58.464267895050241</v>
+      </c>
+      <c r="X20" s="17">
         <v>59.59794411644684</v>
       </c>
-      <c r="V20" s="3">
+      <c r="Y20" s="39">
         <v>63.917525773195877</v>
       </c>
-      <c r="W20" s="4">
+      <c r="Z20" s="34">
         <v>64.979690008565768</v>
       </c>
-      <c r="X20" s="4">
+      <c r="AA20" s="17">
         <v>69.436737087376315</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="AB20" s="1">
+        <v>75.68916952811793</v>
+      </c>
+      <c r="AC20" s="17">
         <v>78.334414170294011</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AD20" s="17">
         <v>89.948206817744051</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AE20" s="17">
         <v>98.298241866968269</v>
       </c>
-      <c r="AB20" s="4">
+      <c r="AF20" s="24">
         <v>100</v>
       </c>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
     </row>
-    <row r="21" spans="1:36">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="38">
         <v>8.5</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="39">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="43">
         <v>17.289002856590471</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="39">
         <v>23.9</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="38">
         <v>24.7</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K21" s="39">
         <v>25.1</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="43">
         <v>28</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="39">
         <v>32</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="43">
         <v>36.258909947399715</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="39">
         <v>38.280811634074638</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="38">
         <v>41.214958024322769</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="17">
+        <v>41.214958024322769</v>
+      </c>
+      <c r="R21" s="39">
         <v>43.220427991868377</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="S21" s="43">
         <v>48.574920935702728</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="39">
         <v>48.962088067287766</v>
       </c>
-      <c r="S21" s="2">
+      <c r="U21" s="43">
         <v>54.111387329794788</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="39">
         <v>58.116903484014756</v>
       </c>
-      <c r="U21" s="2">
+      <c r="W21" s="38">
+        <v>58.790474600052036</v>
+      </c>
+      <c r="X21" s="17">
         <v>59.930476264762724</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Y21" s="39">
         <v>60.642040457343889</v>
       </c>
-      <c r="W21" s="4">
+      <c r="Z21" s="34">
         <v>66.128588007112242</v>
       </c>
-      <c r="X21" s="4">
+      <c r="AA21" s="17">
         <v>73.436991050064421</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="AB21" s="1">
+        <v>76.111480915500053</v>
+      </c>
+      <c r="AC21" s="17">
         <v>78.771484804208939</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="AD21" s="17">
         <v>90.226895215658089</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AE21" s="17">
         <v>98.32780366408501</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AF21" s="24">
         <v>100</v>
       </c>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
     </row>
-    <row r="22" spans="1:36">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="38">
         <v>8.5</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="39">
         <v>11.9</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="43">
         <v>17.289002822231616</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="39">
         <v>19.600000000000001</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="38">
         <v>24.7</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K22" s="39">
         <v>26.3</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="43">
         <v>28</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="39">
         <v>28</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="43">
         <v>36.260043588353071</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="39">
         <v>35.061174006300035</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="38">
         <v>41.214958496021943</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="17">
+        <v>41.214958496021943</v>
+      </c>
+      <c r="R22" s="39">
         <v>41.396725917811693</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="S22" s="43">
         <v>49.0877167899651</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="39">
         <v>48.006540665146446</v>
       </c>
-      <c r="S22" s="2">
+      <c r="U22" s="43">
         <v>55.783844564503923</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="39">
         <v>48.856537612017739</v>
       </c>
-      <c r="U22" s="2">
+      <c r="W22" s="38">
         <v>59.41111310899413</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="17">
+        <v>59.41111310899413</v>
+      </c>
+      <c r="Y22" s="39">
         <v>60.964230171073105</v>
       </c>
-      <c r="W22" s="4">
+      <c r="Z22" s="34">
         <v>67.07190040396631</v>
       </c>
-      <c r="X22" s="4">
+      <c r="AA22" s="17">
         <v>74.457457490571954</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="AB22" s="1">
+        <v>76.914975360382229</v>
+      </c>
+      <c r="AC22" s="17">
         <v>79.603060475980456</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="AD22" s="17">
         <v>90.75713112868344</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AE22" s="17">
         <v>98.384048275226746</v>
       </c>
-      <c r="AB22" s="4">
+      <c r="AF22" s="24">
         <v>100</v>
       </c>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
     </row>
-    <row r="23" spans="1:36">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="38">
         <v>8.5</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="39">
         <v>14.8</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="43">
         <v>17.28900280809167</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="39">
         <v>20.6</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="38">
         <v>24.7</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K23" s="39">
         <v>25.8</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="43">
         <v>28</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="39">
         <v>36</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="43">
         <v>36.258770589994363</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="39">
         <v>42.576580478129181</v>
       </c>
-      <c r="O23" s="2">
+      <c r="P23" s="38">
         <v>41.214957618187938</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="17">
+        <v>41.214957618187938</v>
+      </c>
+      <c r="R23" s="39">
         <v>44.725830494611365</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="S23" s="43">
         <v>48.279823795479878</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="39">
         <v>51.634776573401304</v>
       </c>
-      <c r="S23" s="2">
+      <c r="U23" s="43">
         <v>52.270142856577507</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="39">
         <v>62.664758423809047</v>
       </c>
-      <c r="U23" s="2">
+      <c r="W23" s="38">
+        <v>58.4351431621552</v>
+      </c>
+      <c r="X23" s="17">
         <v>59.568254632688252</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="39">
         <v>64.50252951096121</v>
       </c>
-      <c r="W23" s="4">
+      <c r="Z23" s="34">
         <v>65.196509772515384</v>
       </c>
-      <c r="X23" s="4">
+      <c r="AA23" s="17">
         <v>68.780855803687388</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="AB23" s="1">
+        <v>75.652013975674365</v>
+      </c>
+      <c r="AC23" s="17">
         <v>78.295960089191155</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="AD23" s="17">
         <v>89.923687437147677</v>
       </c>
-      <c r="AA23" s="4">
+      <c r="AE23" s="17">
         <v>98.295640978297214</v>
       </c>
-      <c r="AB23" s="4">
+      <c r="AF23" s="24">
         <v>100</v>
       </c>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
     </row>
-    <row r="24" spans="1:36">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="38">
         <v>16.600000000000001</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="39">
         <v>17.7</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="43">
         <v>25.898680429322344</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="39">
         <v>27.6</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="38">
         <v>37</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="17">
+        <v>37</v>
+      </c>
+      <c r="K24" s="39">
         <v>38</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="43">
         <v>39.4</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="39">
         <v>40.6</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="43">
         <v>47.770305183464409</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="39">
         <v>50.962330413552138</v>
       </c>
-      <c r="O24" s="2">
+      <c r="P24" s="38">
         <v>53.679836709254026</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="17">
+        <v>53.679836709254026</v>
+      </c>
+      <c r="R24" s="39">
         <v>54.643295163083117</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="S24" s="43">
         <v>57.810374270310227</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="39">
         <v>63.752027134287822</v>
       </c>
-      <c r="S24" s="2">
+      <c r="U24" s="43">
         <v>61.072646849593724</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="39">
         <v>69.074226226250971</v>
       </c>
-      <c r="U24" s="2">
+      <c r="W24" s="38">
+        <v>64.715878888774938</v>
+      </c>
+      <c r="X24" s="17">
         <v>65.811650683120561</v>
       </c>
-      <c r="V24" s="3">
+      <c r="Y24" s="39">
         <v>69.397126351651607</v>
       </c>
-      <c r="W24" s="4">
+      <c r="Z24" s="34">
         <v>71.864382818911665</v>
       </c>
-      <c r="X24" s="4">
+      <c r="AA24" s="17">
         <v>73.778786299120952</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="AB24" s="1">
+        <v>79.380962874670743</v>
+      </c>
+      <c r="AC24" s="17">
         <v>82.005962874670743</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="AD24" s="17">
         <v>92.128577724802454</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AE24" s="17">
         <v>98.55666740122696</v>
       </c>
-      <c r="AB24" s="4">
+      <c r="AF24" s="24">
         <v>100</v>
       </c>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
     </row>
-    <row r="25" spans="1:36">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="38">
         <v>8.5</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="39">
         <v>12.1</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="43">
         <v>17.289003571330692</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="39">
         <v>26.7</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="38">
         <v>20.6</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="17">
+        <v>20.6</v>
+      </c>
+      <c r="K25" s="39">
         <v>30.2</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="43">
         <v>30.2</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="39">
         <v>46.3</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="43">
         <v>36.260042079401074</v>
       </c>
-      <c r="N25" s="3">
+      <c r="O25" s="39">
         <v>52.876990888888884</v>
       </c>
-      <c r="O25" s="2">
+      <c r="P25" s="38">
         <v>41.214955573994025</v>
       </c>
-      <c r="P25" s="3">
+      <c r="Q25" s="17">
+        <v>41.214955573994025</v>
+      </c>
+      <c r="R25" s="39">
         <v>55.993021583333338</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="S25" s="43">
         <v>55.993021532824436</v>
       </c>
-      <c r="R25" s="3">
+      <c r="T25" s="39">
         <v>59.087691736111111</v>
       </c>
-      <c r="S25" s="2">
+      <c r="U25" s="43">
         <v>55.993021522325151</v>
       </c>
-      <c r="T25" s="3">
+      <c r="V25" s="39">
         <v>62.622693499999997</v>
       </c>
-      <c r="U25" s="2">
+      <c r="W25" s="38">
+        <v>58.016825779261637</v>
+      </c>
+      <c r="X25" s="17">
         <v>59.141825770783001</v>
       </c>
-      <c r="V25" s="3">
+      <c r="Y25" s="39">
         <v>69.444444444444443</v>
       </c>
-      <c r="W25" s="4">
+      <c r="Z25" s="34">
         <v>69.492807093180915</v>
       </c>
-      <c r="X25" s="4">
+      <c r="AA25" s="17">
         <v>69.492807093180915</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="AB25" s="1">
+        <v>75.109898805672202</v>
+      </c>
+      <c r="AC25" s="17">
         <v>77.734898805672202</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="AD25" s="17">
         <v>89.565939283403324</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AE25" s="17">
         <v>98.257692916397048</v>
       </c>
-      <c r="AB25" s="4">
+      <c r="AF25" s="24">
         <v>100</v>
       </c>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
     </row>
-    <row r="26" spans="1:36">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="38">
         <v>8.5</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="39">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="43">
         <v>13.8</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="39">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="38">
         <v>16.7</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="17">
+        <v>16.7</v>
+      </c>
+      <c r="K26" s="39">
         <v>16.399999999999999</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="43">
         <v>24.1</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="39">
         <v>24.2</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="43">
         <v>27.466732903032138</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="39">
         <v>24.227125432795237</v>
       </c>
-      <c r="O26" s="2">
+      <c r="P26" s="38">
         <v>30.509223088446436</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="17">
+        <v>30.509223088446436</v>
+      </c>
+      <c r="R26" s="39">
         <v>23.583783932674255</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="S26" s="43">
         <v>29.188658771450708</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="39">
         <v>23.720493578735404</v>
       </c>
-      <c r="S26" s="2">
+      <c r="U26" s="43">
         <v>38.485227363183967</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="39">
         <v>25.389873362173578</v>
       </c>
-      <c r="U26" s="2">
+      <c r="W26" s="38">
+        <v>40.02179066303669</v>
+      </c>
+      <c r="X26" s="17">
         <v>43.375755544128225</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="39">
         <v>40.053383576699638</v>
       </c>
-      <c r="W26" s="4">
+      <c r="Z26" s="34">
         <v>58.142035695657988</v>
       </c>
-      <c r="X26" s="4">
+      <c r="AA26" s="17">
         <v>70.122760049100435</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="AB26" s="1">
+        <v>72.870229308706186</v>
+      </c>
+      <c r="AC26" s="17">
         <v>75.725716141816918</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="AD26" s="17">
         <v>88.617257831516099</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AE26" s="17">
         <v>98.099279358510202</v>
       </c>
-      <c r="AB26" s="4">
+      <c r="AF26" s="24">
         <v>100</v>
       </c>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
     </row>
-    <row r="27" spans="1:36">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="38">
         <v>8.5</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="39">
         <v>8.6</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="43">
         <v>16.434697578400641</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="39">
         <v>16.100000000000001</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="38">
         <v>23.5</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="17">
+        <v>23.5</v>
+      </c>
+      <c r="K27" s="39">
         <v>24</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="43">
         <v>26.6</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="39">
         <v>34.9</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="43">
         <v>34.182888554274768</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="39">
         <v>34.934128925522351</v>
       </c>
-      <c r="O27" s="2">
+      <c r="P27" s="38">
         <v>38.770638138963449</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="17">
+        <v>38.770638138963449</v>
+      </c>
+      <c r="R27" s="39">
         <v>38.795080592734131</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="S27" s="43">
         <v>45.224734198974964</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="39">
         <v>39.69913969700827</v>
       </c>
-      <c r="S27" s="2">
+      <c r="U27" s="43">
         <v>52.586525543123493</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="39">
         <v>43.400334561056155</v>
       </c>
-      <c r="U27" s="2">
+      <c r="W27" s="38">
+        <v>54.813186041192779</v>
+      </c>
+      <c r="X27" s="17">
         <v>56.418732650534814</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="39">
         <v>54.949155704823205</v>
       </c>
-      <c r="W27" s="4">
+      <c r="Z27" s="34">
         <v>65.663560608580156</v>
       </c>
-      <c r="X27" s="4">
+      <c r="AA27" s="17">
         <v>73.811629970990893</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="AB27" s="1">
+        <v>75.1099029688326</v>
+      </c>
+      <c r="AC27" s="17">
         <v>77.7349029688326</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="AD27" s="17">
         <v>89.565941781299571</v>
       </c>
-      <c r="AA27" s="4">
+      <c r="AE27" s="17">
         <v>98.257693207818292</v>
       </c>
-      <c r="AB27" s="4">
+      <c r="AF27" s="24">
         <v>100</v>
       </c>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
     </row>
-    <row r="28" spans="1:36">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="38">
         <v>8.5</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="39">
         <v>9.6</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="43">
         <v>17.289003064946293</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="39">
         <v>17.7</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="38">
         <v>24.7</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K28" s="39">
         <v>26.1</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="43">
         <v>28</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="39">
         <v>31.8</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="43">
         <v>36.260043315706277</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O28" s="39">
         <v>37.090180144807832</v>
       </c>
-      <c r="O28" s="2">
+      <c r="P28" s="38">
         <v>41.214957963300812</v>
       </c>
-      <c r="P28" s="3">
+      <c r="Q28" s="17">
+        <v>41.214957963300812</v>
+      </c>
+      <c r="R28" s="39">
         <v>42.460279394198196</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="S28" s="43">
         <v>47.935706952257867</v>
       </c>
-      <c r="R28" s="3">
+      <c r="T28" s="39">
         <v>48.002493744109231</v>
       </c>
-      <c r="S28" s="2">
+      <c r="U28" s="43">
         <v>54.161134549094278</v>
       </c>
-      <c r="T28" s="3">
+      <c r="V28" s="39">
         <v>52.602597461850642</v>
       </c>
-      <c r="U28" s="2">
+      <c r="W28" s="38">
+        <v>58.016830480491585</v>
+      </c>
+      <c r="X28" s="17">
         <v>59.141830481360266</v>
       </c>
-      <c r="V28" s="3">
+      <c r="Y28" s="39">
         <v>58.576480990274099</v>
       </c>
-      <c r="W28" s="4">
+      <c r="Z28" s="34">
         <v>66.553085725138047</v>
       </c>
-      <c r="X28" s="4">
+      <c r="AA28" s="17">
         <v>73.765314764969858</v>
       </c>
-      <c r="Y28" s="4">
+      <c r="AB28" s="1">
+        <v>75.109903035272367</v>
+      </c>
+      <c r="AC28" s="17">
         <v>77.734903035272353</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="AD28" s="17">
         <v>89.56594182116342</v>
       </c>
-      <c r="AA28" s="4">
+      <c r="AE28" s="17">
         <v>98.257693212469064</v>
       </c>
-      <c r="AB28" s="4">
+      <c r="AF28" s="24">
         <v>100</v>
       </c>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
     </row>
-    <row r="29" spans="1:36">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="38">
         <v>8.5</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="39">
         <v>18.399999999999999</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="43">
         <v>17.3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="39">
         <v>30.9</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="38">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="17">
+        <v>24</v>
+      </c>
+      <c r="K29" s="39">
         <v>32.6</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="43">
         <v>32.6</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="39">
         <v>36.1</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29" s="43">
         <v>35.162021481980752</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="39">
         <v>39.661938013087308</v>
       </c>
-      <c r="O29" s="2">
+      <c r="P29" s="38">
         <v>39.966892122346252</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="17">
+        <v>39.966892122346252</v>
+      </c>
+      <c r="R29" s="39">
         <v>40.718037355738346</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="S29" s="43">
         <v>40.718037359653948</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="39">
         <v>44.532694149245238</v>
       </c>
-      <c r="S29" s="2">
+      <c r="U29" s="43">
         <v>32.462745993682979</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="39">
         <v>47.302192266611925</v>
       </c>
-      <c r="U29" s="2">
+      <c r="W29" s="38">
         <v>47.593719685893483</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="17">
+        <v>47.593719685893483</v>
+      </c>
+      <c r="Y29" s="39">
         <v>48.590446358653089</v>
       </c>
-      <c r="W29" s="4">
+      <c r="Z29" s="34">
         <v>60.52804136862548</v>
       </c>
-      <c r="X29" s="4">
+      <c r="AA29" s="17">
         <v>60.52804136862548</v>
       </c>
-      <c r="Y29" s="4">
+      <c r="AB29" s="1">
         <v>75.863621205331455</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="AC29" s="17">
+        <v>75.863621205331455</v>
+      </c>
+      <c r="AD29" s="17">
         <v>77.294367739613548</v>
       </c>
-      <c r="AA29" s="4">
+      <c r="AE29" s="17">
         <v>85.357240148057016</v>
       </c>
-      <c r="AB29" s="4">
+      <c r="AF29" s="24">
         <v>100</v>
       </c>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
     </row>
-    <row r="30" spans="1:36">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="38">
         <v>2.6</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="39">
         <v>7.7</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="43">
         <v>7.0523249263697911</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="39">
         <v>8.4</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="38">
         <v>10.1</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="17">
+        <v>10.1</v>
+      </c>
+      <c r="K30" s="39">
         <v>11.5</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="43">
         <v>11.5</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="39">
         <v>11.9</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="43">
         <v>13.386953980877673</v>
       </c>
-      <c r="N30" s="3">
+      <c r="O30" s="39">
         <v>13.776420333847483</v>
       </c>
-      <c r="O30" s="2">
+      <c r="P30" s="38">
         <v>14.806470024664362</v>
       </c>
-      <c r="P30" s="3">
+      <c r="Q30" s="17">
+        <v>14.806470024664362</v>
+      </c>
+      <c r="R30" s="39">
         <v>16.095218614271488</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="S30" s="43">
         <v>23.175540847282285</v>
       </c>
-      <c r="R30" s="3">
+      <c r="T30" s="39">
         <v>22.523004261452989</v>
       </c>
-      <c r="S30" s="2">
+      <c r="U30" s="43">
         <v>24.059786895896849</v>
       </c>
-      <c r="T30" s="3">
+      <c r="V30" s="39">
         <v>32.828008917089093</v>
       </c>
-      <c r="U30" s="2">
+      <c r="W30" s="38">
         <v>27.984106412644579</v>
       </c>
-      <c r="V30" s="3">
+      <c r="X30" s="17">
+        <v>27.984106412644579</v>
+      </c>
+      <c r="Y30" s="39">
         <v>37.064920894708131</v>
       </c>
-      <c r="W30" s="4">
+      <c r="Z30" s="34">
         <v>37.066034948517903</v>
       </c>
-      <c r="X30" s="4">
+      <c r="AA30" s="17">
         <v>37.066034948517903</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="AB30" s="1">
         <v>48.989191099231306</v>
       </c>
-      <c r="Z30" s="4">
+      <c r="AC30" s="17">
+        <v>48.989191099231306</v>
+      </c>
+      <c r="AD30" s="17">
         <v>83.296970969092698</v>
       </c>
-      <c r="AA30" s="4">
+      <c r="AE30" s="17">
         <v>96.429243376946204</v>
       </c>
-      <c r="AB30" s="4">
+      <c r="AF30" s="24">
         <v>100</v>
       </c>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="15"/>
     </row>
-    <row r="31" spans="1:36">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="38">
         <v>8.5</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="39">
         <v>9.1</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="43">
         <v>17.289002704463723</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="39">
         <v>10.5</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="38">
         <v>24.7</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K31" s="39">
         <v>25.8</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="43">
         <v>28</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="39">
         <v>36.200000000000003</v>
       </c>
-      <c r="M31" s="2">
+      <c r="N31" s="43">
         <v>36.250325307420525</v>
       </c>
-      <c r="N31" s="3">
+      <c r="O31" s="39">
         <v>36.240740899496238</v>
       </c>
-      <c r="O31" s="2">
+      <c r="P31" s="38">
         <v>41.205644351350095</v>
       </c>
-      <c r="P31" s="3">
+      <c r="Q31" s="17">
+        <v>41.205644351350095</v>
+      </c>
+      <c r="R31" s="39">
         <v>41.875092679495467</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="S31" s="43">
         <v>47.766256699622879</v>
       </c>
-      <c r="R31" s="3">
+      <c r="T31" s="39">
         <v>41.884557274210088</v>
       </c>
-      <c r="S31" s="2">
+      <c r="U31" s="43">
         <v>53.647956125585047</v>
       </c>
-      <c r="T31" s="3">
+      <c r="V31" s="39">
         <v>54.560875825659636</v>
       </c>
-      <c r="U31" s="2">
+      <c r="W31" s="38">
         <v>57.593205281706766</v>
       </c>
-      <c r="V31" s="3">
+      <c r="X31" s="17">
+        <v>57.593205281706766</v>
+      </c>
+      <c r="Y31" s="39">
         <v>58.421480878763234</v>
       </c>
-      <c r="W31" s="4">
+      <c r="Z31" s="34">
         <v>63.601376926661835</v>
       </c>
-      <c r="X31" s="4">
+      <c r="AA31" s="17">
         <v>70.438606041803922</v>
       </c>
-      <c r="Y31" s="4">
+      <c r="AB31" s="1">
         <v>74.686278070769987</v>
       </c>
-      <c r="Z31" s="4">
+      <c r="AC31" s="17">
+        <v>74.686278070769987</v>
+      </c>
+      <c r="AD31" s="17">
         <v>89.464271849331297</v>
       </c>
-      <c r="AA31" s="4">
+      <c r="AE31" s="17">
         <v>98.228039464953923</v>
       </c>
-      <c r="AB31" s="4">
+      <c r="AF31" s="24">
         <v>100</v>
       </c>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
     </row>
-    <row r="32" spans="1:36">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="38">
         <v>8.5</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="39">
         <v>15.6</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="43">
         <v>17.289002654403564</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="39">
         <v>21</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="38">
         <v>24.7</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K32" s="39">
         <v>26.6</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="43">
         <v>28</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="39">
         <v>35.1</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="43">
         <v>36.260042840496823</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="39">
         <v>39.520888404571743</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="38">
         <v>41.214957534995094</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="17">
+        <v>41.214957534995094</v>
+      </c>
+      <c r="R32" s="39">
         <v>42.718222236702282</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="S32" s="43">
         <v>47.935706631026413</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="39">
         <v>46.330380854579516</v>
       </c>
-      <c r="S32" s="2">
+      <c r="U32" s="43">
         <v>53.903191047461625</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="39">
         <v>57.02619304547126</v>
       </c>
-      <c r="U32" s="2">
+      <c r="W32" s="38">
+        <v>58.016830261239605</v>
+      </c>
+      <c r="X32" s="17">
         <v>59.141830260971354</v>
       </c>
-      <c r="V32" s="3">
+      <c r="Y32" s="39">
         <v>58.43210890740523</v>
       </c>
-      <c r="W32" s="4">
+      <c r="Z32" s="34">
         <v>66.683672066435847</v>
       </c>
-      <c r="X32" s="4">
+      <c r="AA32" s="17">
         <v>73.895901182024531</v>
       </c>
-      <c r="Y32" s="4">
+      <c r="AB32" s="1">
+        <v>75.109903086272794</v>
+      </c>
+      <c r="AC32" s="17">
         <v>77.734903087295024</v>
       </c>
-      <c r="Z32" s="4">
+      <c r="AD32" s="17">
         <v>89.565941869092711</v>
       </c>
-      <c r="AA32" s="4">
+      <c r="AE32" s="17">
         <v>98.257693252254867</v>
       </c>
-      <c r="AB32" s="4">
+      <c r="AF32" s="24">
         <v>100</v>
       </c>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
     </row>
-    <row r="33" spans="1:36">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="38">
         <v>8.5</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="39">
         <v>8.9</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="43">
         <v>11.6</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="39">
         <v>13.1</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="38">
         <v>14.6</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="17">
+        <v>14.6</v>
+      </c>
+      <c r="K33" s="39">
         <v>15.4</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="43">
         <v>15.9</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="39">
         <v>16.7</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="43">
         <v>19.475596171591217</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="39">
         <v>18.906806714610873</v>
       </c>
-      <c r="O33" s="2">
+      <c r="P33" s="38">
         <v>17.833461798517813</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="17">
+        <v>17.833461798517813</v>
+      </c>
+      <c r="R33" s="39">
         <v>21.287807468554337</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="S33" s="43">
         <v>23.33124607591969</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="39">
         <v>24.409255454058751</v>
       </c>
-      <c r="S33" s="2">
+      <c r="U33" s="43">
         <v>28.193977049123987</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="39">
         <v>31.133759636537853</v>
       </c>
-      <c r="U33" s="2">
+      <c r="W33" s="38">
+        <v>29.185688828670987</v>
+      </c>
+      <c r="X33" s="17">
         <v>34.635360037139719</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="39">
         <v>36.486892135281167</v>
       </c>
-      <c r="W33" s="4">
+      <c r="Z33" s="34">
         <v>46.439510049011972</v>
       </c>
-      <c r="X33" s="4">
+      <c r="AA33" s="17">
         <v>54.140684348300063</v>
       </c>
-      <c r="Y33" s="4">
+      <c r="AB33" s="1">
+        <v>57.827974468225342</v>
+      </c>
+      <c r="AC33" s="17">
         <v>66.501649466047056</v>
       </c>
-      <c r="Z33" s="4">
+      <c r="AD33" s="17">
         <v>83.674956245297992</v>
       </c>
-      <c r="AA33" s="4">
+      <c r="AE33" s="17">
         <v>96.437795261086947</v>
       </c>
-      <c r="AB33" s="4">
+      <c r="AF33" s="24">
         <v>100</v>
       </c>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
     </row>
-    <row r="34" spans="1:36">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="38">
         <v>2</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="39">
         <v>5.7</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="43">
         <v>4.7584265082105945</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="39">
         <v>7.3</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="38">
         <v>6.8</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="K34" s="39">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="43">
         <v>8.8000000000000007</v>
       </c>
-      <c r="L34" s="3">
+      <c r="M34" s="39">
         <v>11.6</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N34" s="43">
         <v>10.542436546685554</v>
       </c>
-      <c r="N34" s="3">
+      <c r="O34" s="39">
         <v>14.814319166192162</v>
       </c>
-      <c r="O34" s="2">
+      <c r="P34" s="38">
         <v>14.702777543955737</v>
       </c>
-      <c r="P34" s="3">
+      <c r="Q34" s="17">
+        <v>14.702777543955737</v>
+      </c>
+      <c r="R34" s="39">
         <v>15.405055899482569</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="S34" s="43">
         <v>15.198252623530051</v>
       </c>
-      <c r="R34" s="3">
+      <c r="T34" s="39">
         <v>22.998119444261967</v>
       </c>
-      <c r="S34" s="2">
+      <c r="U34" s="43">
         <v>19.361964168956945</v>
       </c>
-      <c r="T34" s="3">
+      <c r="V34" s="39">
         <v>25.357186181419422</v>
       </c>
-      <c r="U34" s="2">
+      <c r="W34" s="38">
         <v>22.028104572150738</v>
       </c>
-      <c r="V34" s="3">
+      <c r="X34" s="17">
+        <v>22.028104572150738</v>
+      </c>
+      <c r="Y34" s="39">
         <v>31.784114497978806</v>
       </c>
-      <c r="W34" s="4">
+      <c r="Z34" s="34">
         <v>31.784309371832187</v>
       </c>
-      <c r="X34" s="4">
+      <c r="AA34" s="17">
         <v>31.784309371832187</v>
       </c>
-      <c r="Y34" s="4">
+      <c r="AB34" s="1">
         <v>40.305932830879669</v>
       </c>
-      <c r="Z34" s="4">
+      <c r="AC34" s="17">
+        <v>40.305932830879669</v>
+      </c>
+      <c r="AD34" s="17">
         <v>80.795423773981042</v>
       </c>
-      <c r="AA34" s="4">
+      <c r="AE34" s="17">
         <v>95.630233485966357</v>
       </c>
-      <c r="AB34" s="4">
+      <c r="AF34" s="24">
         <v>100</v>
       </c>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
     </row>
-    <row r="35" spans="1:36">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="38">
         <v>8.4</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="39">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="43">
         <v>14.4</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="39">
         <v>16.5</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="38">
         <v>20.5</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="17">
+        <v>20.5</v>
+      </c>
+      <c r="K35" s="39">
         <v>22.7</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="43">
         <v>23.4</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="39">
         <v>25.3</v>
       </c>
-      <c r="M35" s="2">
+      <c r="N35" s="43">
         <v>27.274643160168754</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="39">
         <v>32.498374116089408</v>
       </c>
-      <c r="O35" s="2">
+      <c r="P35" s="38">
         <v>36.096509811967948</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="17">
+        <v>36.096509811967948</v>
+      </c>
+      <c r="R35" s="39">
         <v>41.758964305804369</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="S35" s="43">
         <v>41.926384320390248</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="39">
         <v>45.885619419998619</v>
       </c>
-      <c r="S35" s="2">
+      <c r="U35" s="43">
         <v>42.744460527072121</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="39">
         <v>50.736042041655331</v>
       </c>
-      <c r="U35" s="2">
+      <c r="W35" s="38">
         <v>51.3944886644896</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="17">
+        <v>51.3944886644896</v>
+      </c>
+      <c r="Y35" s="39">
         <v>55.307971417759276</v>
       </c>
-      <c r="W35" s="4">
+      <c r="Z35" s="34">
         <v>55.3086757928208</v>
       </c>
-      <c r="X35" s="4">
+      <c r="AA35" s="17">
         <v>62.039912829854167</v>
       </c>
-      <c r="Y35" s="4">
+      <c r="AB35" s="1">
         <v>70.09485768240468</v>
       </c>
-      <c r="Z35" s="4">
+      <c r="AC35" s="17">
+        <v>70.09485768240468</v>
+      </c>
+      <c r="AD35" s="17">
         <v>88.161988988865716</v>
       </c>
-      <c r="AA35" s="4">
+      <c r="AE35" s="17">
         <v>97.836520351285742</v>
       </c>
-      <c r="AB35" s="4">
+      <c r="AF35" s="24">
         <v>100</v>
       </c>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
     </row>
-    <row r="36" spans="1:36">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="38">
         <v>7.6</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="39">
         <v>7.7</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="43">
         <v>4.7</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="39">
         <v>8.6</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="38">
         <v>10.1</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="17">
+        <v>10.1</v>
+      </c>
+      <c r="K36" s="39">
         <v>11.7</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="43">
         <v>12.7</v>
       </c>
-      <c r="L36" s="3">
+      <c r="M36" s="39">
         <v>12.7</v>
       </c>
-      <c r="M36" s="2">
+      <c r="N36" s="43">
         <v>14.653419098340365</v>
       </c>
-      <c r="N36" s="3">
+      <c r="O36" s="39">
         <v>14.051310126220006</v>
       </c>
-      <c r="O36" s="2">
+      <c r="P36" s="38">
         <v>15.866629269719933</v>
       </c>
-      <c r="P36" s="3">
+      <c r="Q36" s="17">
+        <v>15.866629269719933</v>
+      </c>
+      <c r="R36" s="39">
         <v>18.77088181046804</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="S36" s="43">
         <v>22.773293454295271</v>
       </c>
-      <c r="R36" s="3">
+      <c r="T36" s="39">
         <v>27.41535868482099</v>
       </c>
-      <c r="S36" s="2">
+      <c r="U36" s="43">
         <v>27.814248036792851</v>
       </c>
-      <c r="T36" s="3">
+      <c r="V36" s="39">
         <v>33.926057131045106</v>
       </c>
-      <c r="U36" s="2">
+      <c r="W36" s="38">
+        <v>32.240941433840398</v>
+      </c>
+      <c r="X36" s="17">
         <v>37.353511613547298</v>
       </c>
-      <c r="V36" s="3">
+      <c r="Y36" s="39">
         <v>37.614973507351422</v>
       </c>
-      <c r="W36" s="4">
+      <c r="Z36" s="34">
         <v>48.086297173655595</v>
       </c>
-      <c r="X36" s="4">
+      <c r="AA36" s="17">
         <v>57.235652076653693</v>
       </c>
-      <c r="Y36" s="4">
+      <c r="AB36" s="1">
+        <v>56.153086356340793</v>
+      </c>
+      <c r="AC36" s="17">
         <v>65.762374103827767</v>
       </c>
-      <c r="Z36" s="4">
+      <c r="AD36" s="17">
         <v>85.017689236923488</v>
       </c>
-      <c r="AA36" s="4">
+      <c r="AE36" s="17">
         <v>96.805423800525773</v>
       </c>
-      <c r="AB36" s="4">
+      <c r="AF36" s="24">
         <v>100</v>
       </c>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
     </row>
-    <row r="37" spans="1:36">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="38">
         <v>15</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="39">
         <v>17</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="43">
         <v>22.1</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="39">
         <v>22.3</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="38">
         <v>30.9</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="17">
+        <v>30.9</v>
+      </c>
+      <c r="K37" s="39">
         <v>32.700000000000003</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="43">
         <v>33</v>
       </c>
-      <c r="L37" s="3">
+      <c r="M37" s="39">
         <v>33.299999999999997</v>
       </c>
-      <c r="M37" s="2">
+      <c r="N37" s="43">
         <v>40.983771125046012</v>
       </c>
-      <c r="N37" s="3">
+      <c r="O37" s="39">
         <v>41.287316102441537</v>
       </c>
-      <c r="O37" s="2">
+      <c r="P37" s="38">
         <v>43.759973871505707</v>
       </c>
-      <c r="P37" s="3">
+      <c r="Q37" s="17">
+        <v>43.759973871505707</v>
+      </c>
+      <c r="R37" s="39">
         <v>44.48575207171428</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="S37" s="43">
         <v>47.098817102390257</v>
       </c>
-      <c r="R37" s="3">
+      <c r="T37" s="39">
         <v>47.231238636119244</v>
       </c>
-      <c r="S37" s="2">
+      <c r="U37" s="43">
         <v>52.804396501571212</v>
       </c>
-      <c r="T37" s="3">
+      <c r="V37" s="39">
         <v>53.57923740131325</v>
       </c>
-      <c r="U37" s="2">
+      <c r="W37" s="38">
+        <v>58.415813246880255</v>
+      </c>
+      <c r="X37" s="17">
         <v>60.704335778840232</v>
       </c>
-      <c r="V37" s="3">
+      <c r="Y37" s="39">
         <v>59.212975272533896</v>
       </c>
-      <c r="W37" s="4">
+      <c r="Z37" s="34">
         <v>67.432605557327079</v>
       </c>
-      <c r="X37" s="4">
+      <c r="AA37" s="17">
         <v>73.422161022200157</v>
       </c>
-      <c r="Y37" s="4">
+      <c r="AB37" s="1">
+        <v>73.271605133894752</v>
+      </c>
+      <c r="AC37" s="17">
         <v>78.938877745660264</v>
       </c>
-      <c r="Z37" s="4">
+      <c r="AD37" s="17">
         <v>90.056266091036804</v>
       </c>
-      <c r="AA37" s="4">
+      <c r="AE37" s="17">
         <v>97.591486003520927</v>
       </c>
-      <c r="AB37" s="4">
+      <c r="AF37" s="24">
         <v>100</v>
       </c>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="15"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="15"/>
+      <c r="AN37" s="15"/>
     </row>
-    <row r="38" spans="1:36">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="38">
         <v>8.5</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="39">
         <v>9</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="43">
         <v>17.28900259619143</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="39">
         <v>10.6</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="38">
         <v>24.7</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K38" s="39">
         <v>32</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="43">
         <v>32</v>
       </c>
-      <c r="L38" s="3">
+      <c r="M38" s="39">
         <v>32</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="43">
         <v>36.25734605352239</v>
       </c>
-      <c r="N38" s="3">
+      <c r="O38" s="39">
         <v>37.864801863492502</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="38">
         <v>41.214957681711134</v>
       </c>
-      <c r="P38" s="3">
+      <c r="Q38" s="17">
+        <v>41.214957681711134</v>
+      </c>
+      <c r="R38" s="39">
         <v>43.183436913858138</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="43">
         <v>47.935706632979581</v>
       </c>
-      <c r="R38" s="3">
+      <c r="T38" s="39">
         <v>49.005283789991438</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="43">
         <v>51.667972738434457</v>
       </c>
-      <c r="T38" s="3">
+      <c r="V38" s="39">
         <v>58.953246927871518</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="38">
+        <v>56.393978648292226</v>
+      </c>
+      <c r="X38" s="17">
         <v>57.487510058295939</v>
       </c>
-      <c r="V38" s="3">
+      <c r="Y38" s="39">
         <v>60.509754562617999</v>
       </c>
-      <c r="W38" s="4">
+      <c r="Z38" s="34">
         <v>64.011152479804664</v>
       </c>
-      <c r="X38" s="4">
+      <c r="AA38" s="17">
         <v>70.083403967301777</v>
       </c>
-      <c r="Y38" s="4">
+      <c r="AB38" s="1">
+        <v>75.109902748269462</v>
+      </c>
+      <c r="AC38" s="17">
         <v>77.734902748269462</v>
       </c>
-      <c r="Z38" s="4">
+      <c r="AD38" s="17">
         <v>89.565941648961669</v>
       </c>
-      <c r="AA38" s="4">
+      <c r="AE38" s="17">
         <v>98.257693192378866</v>
       </c>
-      <c r="AB38" s="4">
+      <c r="AF38" s="24">
         <v>100</v>
       </c>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="28"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="15"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="15"/>
+      <c r="AN38" s="15"/>
     </row>
-    <row r="39" spans="1:36">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="38">
         <v>8.5</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="39">
         <v>12.4</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="43">
         <v>17.2890026127432</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="39">
         <v>20.399999999999999</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="38">
         <v>24.7</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K39" s="39">
         <v>26.5</v>
       </c>
-      <c r="K39" s="2">
+      <c r="L39" s="43">
         <v>28</v>
       </c>
-      <c r="L39" s="3">
+      <c r="M39" s="39">
         <v>35</v>
       </c>
-      <c r="M39" s="2">
+      <c r="N39" s="43">
         <v>36.257336717695189</v>
       </c>
-      <c r="N39" s="3">
+      <c r="O39" s="39">
         <v>41.478229802107613</v>
       </c>
-      <c r="O39" s="2">
+      <c r="P39" s="38">
         <v>41.214957685312775</v>
       </c>
-      <c r="P39" s="3">
+      <c r="Q39" s="17">
+        <v>41.214957685312775</v>
+      </c>
+      <c r="R39" s="39">
         <v>48.872995078898654</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="S39" s="43">
         <v>44.241871648875808</v>
       </c>
-      <c r="R39" s="3">
+      <c r="T39" s="39">
         <v>54.044971324268964</v>
       </c>
-      <c r="S39" s="2">
+      <c r="U39" s="43">
         <v>43.29738651449405</v>
       </c>
-      <c r="T39" s="3">
+      <c r="V39" s="39">
         <v>58.25943530188124</v>
       </c>
-      <c r="U39" s="2">
+      <c r="W39" s="38">
         <v>51.865011190281869</v>
       </c>
-      <c r="V39" s="3">
+      <c r="X39" s="17">
+        <v>51.865011190281869</v>
+      </c>
+      <c r="Y39" s="39">
         <v>65.240083507306892</v>
       </c>
-      <c r="W39" s="4">
+      <c r="Z39" s="34">
         <v>65.487944627245554</v>
       </c>
-      <c r="X39" s="4">
+      <c r="AA39" s="17">
         <v>65.487944627245554</v>
       </c>
-      <c r="Y39" s="4">
+      <c r="AB39" s="1">
         <v>67.413416002163189</v>
       </c>
-      <c r="Z39" s="4">
+      <c r="AC39" s="17">
+        <v>67.413416002163189</v>
+      </c>
+      <c r="AD39" s="17">
         <v>84.486936079910734</v>
       </c>
-      <c r="AA39" s="4">
+      <c r="AE39" s="17">
         <v>97.718939120151418</v>
       </c>
-      <c r="AB39" s="4">
+      <c r="AF39" s="24">
         <v>100</v>
       </c>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="28"/>
-      <c r="AG39" s="28"/>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="28"/>
-      <c r="AJ39" s="28"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
     </row>
-    <row r="40" spans="1:36">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="38">
         <v>8</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="39">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="43">
         <v>16.658965511310331</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="39">
         <v>18.100000000000001</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="38">
         <v>23.8</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="17">
+        <v>23.8</v>
+      </c>
+      <c r="K40" s="39">
         <v>26.7</v>
       </c>
-      <c r="K40" s="2">
+      <c r="L40" s="43">
         <v>26.7</v>
       </c>
-      <c r="L40" s="3">
+      <c r="M40" s="39">
         <v>29.5</v>
       </c>
-      <c r="M40" s="2">
+      <c r="N40" s="43">
         <v>32.385979125950151</v>
       </c>
-      <c r="N40" s="3">
+      <c r="O40" s="39">
         <v>35.298668936834972</v>
       </c>
-      <c r="O40" s="2">
+      <c r="P40" s="38">
         <v>38.523102911679466</v>
       </c>
-      <c r="P40" s="3">
+      <c r="Q40" s="17">
+        <v>38.523102911679466</v>
+      </c>
+      <c r="R40" s="39">
         <v>40.199689170994148</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="S40" s="43">
         <v>46.490392791270764</v>
       </c>
-      <c r="R40" s="3">
+      <c r="T40" s="39">
         <v>48.567385542668887</v>
       </c>
-      <c r="S40" s="2">
+      <c r="U40" s="43">
         <v>52.472222164792512</v>
       </c>
-      <c r="T40" s="3">
+      <c r="V40" s="39">
         <v>57.599930816765827</v>
       </c>
-      <c r="U40" s="2">
+      <c r="W40" s="38">
         <v>57.983166394707986</v>
       </c>
-      <c r="V40" s="3">
+      <c r="X40" s="17">
+        <v>57.983166394707986</v>
+      </c>
+      <c r="Y40" s="39">
         <v>64.150943396226424</v>
       </c>
-      <c r="W40" s="4">
+      <c r="Z40" s="34">
         <v>64.824453553976952</v>
       </c>
-      <c r="X40" s="4">
+      <c r="AA40" s="17">
         <v>68.433621484543352</v>
       </c>
-      <c r="Y40" s="4">
+      <c r="AB40" s="1">
+        <v>75.444945659194602</v>
+      </c>
+      <c r="AC40" s="17">
         <v>78.089577720221726</v>
       </c>
-      <c r="Z40" s="4">
+      <c r="AD40" s="17">
         <v>89.800622357277561</v>
       </c>
-      <c r="AA40" s="4">
+      <c r="AE40" s="17">
         <v>98.281146196143609</v>
       </c>
-      <c r="AB40" s="4">
+      <c r="AF40" s="24">
         <v>100</v>
       </c>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="28"/>
-      <c r="AG40" s="28"/>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="28"/>
-      <c r="AJ40" s="28"/>
+      <c r="AH40" s="16"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
     </row>
-    <row r="41" spans="1:36">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="38">
         <v>8.5</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="39">
         <v>8.5</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="43">
         <v>17.289002568128375</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="39">
         <v>23.2</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="38">
         <v>24.7</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K41" s="39">
         <v>25.3</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L41" s="43">
         <v>28</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="39">
         <v>28.8</v>
       </c>
-      <c r="M41" s="2">
+      <c r="N41" s="43">
         <v>36.260042673435208</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="39">
         <v>36.35945755684736</v>
       </c>
-      <c r="O41" s="2">
+      <c r="P41" s="38">
         <v>41.214957349294743</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="17">
+        <v>41.214957349294743</v>
+      </c>
+      <c r="R41" s="39">
         <v>41.585140196049601</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="S41" s="43">
         <v>48.363574526093913</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="39">
         <v>43.478410275780021</v>
       </c>
-      <c r="S41" s="2">
+      <c r="U41" s="43">
         <v>55.527519533494164</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="39">
         <v>48.078879700156079</v>
       </c>
-      <c r="U41" s="2">
+      <c r="W41" s="38">
+        <v>58.534681013319961</v>
+      </c>
+      <c r="X41" s="17">
         <v>59.669722621636382</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Y41" s="39">
         <v>58.786809607816529</v>
       </c>
-      <c r="W41" s="4">
+      <c r="Z41" s="34">
         <v>67.458510547542431</v>
       </c>
-      <c r="X41" s="4">
+      <c r="AA41" s="17">
         <v>74.735115153303298</v>
       </c>
-      <c r="Y41" s="4">
+      <c r="AB41" s="1">
+        <v>75.780324520791766</v>
+      </c>
+      <c r="AC41" s="17">
         <v>78.42875494019674</v>
       </c>
-      <c r="Z41" s="4">
+      <c r="AD41" s="17">
         <v>90.00836114574075</v>
       </c>
-      <c r="AA41" s="4">
+      <c r="AE41" s="17">
         <v>98.304622716455427</v>
       </c>
-      <c r="AB41" s="4">
+      <c r="AF41" s="24">
         <v>100</v>
       </c>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="28"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="15"/>
+      <c r="AJ41" s="15"/>
+      <c r="AK41" s="15"/>
+      <c r="AL41" s="15"/>
+      <c r="AM41" s="15"/>
+      <c r="AN41" s="15"/>
     </row>
-    <row r="42" spans="1:36">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="38">
         <v>8.5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="39">
         <v>9</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="43">
         <v>17.289002890163783</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="39">
         <v>17.8</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="38">
         <v>24.7</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K42" s="39">
         <v>25.5</v>
       </c>
-      <c r="K42" s="2">
+      <c r="L42" s="43">
         <v>28</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="39">
         <v>29.1</v>
       </c>
-      <c r="M42" s="2">
+      <c r="N42" s="43">
         <v>36.26004311813589</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="39">
         <v>38.391758422224441</v>
       </c>
-      <c r="O42" s="2">
+      <c r="P42" s="38">
         <v>41.214957787032631</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="17">
+        <v>41.214957787032631</v>
+      </c>
+      <c r="R42" s="39">
         <v>42.459273232369178</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="S42" s="43">
         <v>48.332763948168278</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="39">
         <v>49.128428608303672</v>
       </c>
-      <c r="S42" s="2">
+      <c r="U42" s="43">
         <v>54.610956745076663</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="39">
         <v>56.239446493539383</v>
       </c>
-      <c r="U42" s="2">
+      <c r="W42" s="38">
+        <v>58.497423318266073</v>
+      </c>
+      <c r="X42" s="17">
         <v>59.631742461746271</v>
       </c>
-      <c r="V42" s="3">
+      <c r="Y42" s="39">
         <v>60.562844647271348</v>
       </c>
-      <c r="W42" s="4">
+      <c r="Z42" s="34">
         <v>65.59686309499385</v>
       </c>
-      <c r="X42" s="4">
+      <c r="AA42" s="17">
         <v>72.868831908484879</v>
       </c>
-      <c r="Y42" s="4">
+      <c r="AB42" s="1">
+        <v>75.732047067355197</v>
+      </c>
+      <c r="AC42" s="17">
         <v>78.378790248583456</v>
       </c>
-      <c r="Z42" s="4">
+      <c r="AD42" s="17">
         <v>89.976502265375842</v>
       </c>
-      <c r="AA42" s="4">
+      <c r="AE42" s="17">
         <v>98.301243294714865</v>
       </c>
-      <c r="AB42" s="4">
+      <c r="AF42" s="24">
         <v>100</v>
       </c>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28"/>
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="15"/>
+      <c r="AL42" s="15"/>
+      <c r="AM42" s="15"/>
+      <c r="AN42" s="15"/>
     </row>
-    <row r="43" spans="1:36">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="38">
         <v>8.4</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="39">
         <v>17</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="43">
         <v>17.251336861799643</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="39">
         <v>21.1</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="38">
         <v>24.6</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="17">
+        <v>24.6</v>
+      </c>
+      <c r="K43" s="39">
         <v>28.7</v>
       </c>
-      <c r="K43" s="2">
+      <c r="L43" s="43">
         <v>28.7</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="39">
         <v>28.7</v>
       </c>
-      <c r="M43" s="2">
+      <c r="N43" s="43">
         <v>35.148627085765312</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="39">
         <v>37.982813524436096</v>
       </c>
-      <c r="O43" s="2">
+      <c r="P43" s="38">
         <v>39.650281394403954</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="17">
+        <v>39.650281394403954</v>
+      </c>
+      <c r="R43" s="39">
         <v>43.23414622744361</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="S43" s="43">
         <v>46.096389273775209</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="39">
         <v>47.994311502821112</v>
       </c>
-      <c r="S43" s="2">
+      <c r="U43" s="43">
         <v>51.496813242388171</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="39">
         <v>57.044341088855411</v>
       </c>
-      <c r="U43" s="2">
+      <c r="W43" s="38">
+        <v>57.997394347565681</v>
+      </c>
+      <c r="X43" s="17">
         <v>59.123075366570731</v>
       </c>
-      <c r="V43" s="3">
+      <c r="Y43" s="39">
         <v>62.937194433997746</v>
       </c>
-      <c r="W43" s="4">
+      <c r="Z43" s="34">
         <v>64.289131890904144</v>
       </c>
-      <c r="X43" s="4">
+      <c r="AA43" s="17">
         <v>69.377780457055934</v>
       </c>
-      <c r="Y43" s="4">
+      <c r="AB43" s="1">
+        <v>75.127157720382925</v>
+      </c>
+      <c r="AC43" s="17">
         <v>77.753960458469734</v>
       </c>
-      <c r="Z43" s="4">
+      <c r="AD43" s="17">
         <v>89.579385040378568</v>
       </c>
-      <c r="AA43" s="4">
+      <c r="AE43" s="17">
         <v>98.258901040426807</v>
       </c>
-      <c r="AB43" s="4">
+      <c r="AF43" s="24">
         <v>100</v>
       </c>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="28"/>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="28"/>
-      <c r="AJ43" s="28"/>
+      <c r="AH43" s="16"/>
+      <c r="AI43" s="15"/>
+      <c r="AJ43" s="15"/>
+      <c r="AK43" s="15"/>
+      <c r="AL43" s="15"/>
+      <c r="AM43" s="15"/>
+      <c r="AN43" s="15"/>
     </row>
-    <row r="44" spans="1:36">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="38">
         <v>8.5</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="39">
         <v>18.8</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="43">
         <v>17.289002813012171</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="39">
         <v>20.6</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="38">
         <v>24.7</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K44" s="39">
         <v>30.4</v>
       </c>
-      <c r="K44" s="2">
+      <c r="L44" s="43">
         <v>30.4</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="39">
         <v>30.4</v>
       </c>
-      <c r="M44" s="2">
+      <c r="N44" s="43">
         <v>36.260042847048048</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="39">
         <v>39.004859196883906</v>
       </c>
-      <c r="O44" s="2">
+      <c r="P44" s="38">
         <v>41.21495735840243</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="17">
+        <v>41.21495735840243</v>
+      </c>
+      <c r="R44" s="39">
         <v>43.591820384229543</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="S44" s="43">
         <v>48.433949949592304</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="39">
         <v>49.735683332502369</v>
       </c>
-      <c r="S44" s="2">
+      <c r="U44" s="43">
         <v>52.822986459343667</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="39">
         <v>53.638302534372997</v>
       </c>
-      <c r="U44" s="2">
+      <c r="W44" s="38">
         <v>58.619856927483298</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="17">
+        <v>58.619856927483298</v>
+      </c>
+      <c r="Y44" s="39">
         <v>59.902029391182644</v>
       </c>
-      <c r="W44" s="4">
+      <c r="Z44" s="34">
         <v>64.23871838728482</v>
       </c>
-      <c r="X44" s="4">
+      <c r="AA44" s="17">
         <v>71.147013762851941</v>
       </c>
-      <c r="Y44" s="4">
+      <c r="AB44" s="1">
         <v>75.890595276140957</v>
       </c>
-      <c r="Z44" s="4">
+      <c r="AC44" s="17">
+        <v>75.890595276140957</v>
+      </c>
+      <c r="AD44" s="17">
         <v>90.081130161346991</v>
       </c>
-      <c r="AA44" s="4">
+      <c r="AE44" s="17">
         <v>98.312341669329882</v>
       </c>
-      <c r="AB44" s="4">
+      <c r="AF44" s="24">
         <v>100</v>
       </c>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="28"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="28"/>
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="15"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="15"/>
+      <c r="AM44" s="15"/>
+      <c r="AN44" s="15"/>
     </row>
-    <row r="45" spans="1:36">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="38">
         <v>8.5</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="39">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="43">
         <v>17.289001973440609</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="39">
         <v>17.5</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="38">
         <v>24.7</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K45" s="39">
         <v>25.1</v>
       </c>
-      <c r="K45" s="2">
+      <c r="L45" s="43">
         <v>27.7</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="39">
         <v>27.6</v>
       </c>
-      <c r="M45" s="2">
+      <c r="N45" s="43">
         <v>35.977167063125506</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="39">
         <v>35.687489621140358</v>
       </c>
-      <c r="O45" s="2">
+      <c r="P45" s="38">
         <v>41.214956676258616</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="17">
+        <v>41.214956676258616</v>
+      </c>
+      <c r="R45" s="39">
         <v>41.623953355149176</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="S45" s="43">
         <v>47.078587210999046</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="39">
         <v>46.807550970803653</v>
       </c>
-      <c r="S45" s="2">
+      <c r="U45" s="43">
         <v>54.136885080921409</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="39">
         <v>52.815108411626618</v>
       </c>
-      <c r="U45" s="2">
+      <c r="W45" s="38">
+        <v>58.016757877231235</v>
+      </c>
+      <c r="X45" s="17">
         <v>59.141756487245885</v>
       </c>
-      <c r="V45" s="3">
+      <c r="Y45" s="39">
         <v>58.077922077922075</v>
       </c>
-      <c r="W45" s="4">
+      <c r="Z45" s="34">
         <v>66.168953682171662</v>
       </c>
-      <c r="X45" s="4">
+      <c r="AA45" s="17">
         <v>73.381182616830884</v>
       </c>
-      <c r="Y45" s="4">
+      <c r="AB45" s="1">
+        <v>75.109901896139462</v>
+      </c>
+      <c r="AC45" s="17">
         <v>77.734901896139462</v>
       </c>
-      <c r="Z45" s="4">
+      <c r="AD45" s="17">
         <v>88.963360775549589</v>
       </c>
-      <c r="AA45" s="4">
+      <c r="AE45" s="17">
         <v>98.039532554888467</v>
       </c>
-      <c r="AB45" s="4">
+      <c r="AF45" s="24">
         <v>100</v>
       </c>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="28"/>
-      <c r="AG45" s="28"/>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="28"/>
-      <c r="AJ45" s="28"/>
+      <c r="AH45" s="16"/>
+      <c r="AI45" s="15"/>
+      <c r="AJ45" s="15"/>
+      <c r="AK45" s="15"/>
+      <c r="AL45" s="15"/>
+      <c r="AM45" s="15"/>
+      <c r="AN45" s="15"/>
     </row>
-    <row r="46" spans="1:36">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="38">
         <v>8.5</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="39">
         <v>15.3</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="43">
         <v>17.289002301554209</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="39">
         <v>26.7</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="38">
         <v>24.7</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K46" s="39">
         <v>29.2</v>
       </c>
-      <c r="K46" s="2">
+      <c r="L46" s="43">
         <v>29.2</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="39">
         <v>36.5</v>
       </c>
-      <c r="M46" s="2">
+      <c r="N46" s="43">
         <v>36.260040002334939</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="39">
         <v>38.860693437110669</v>
       </c>
-      <c r="O46" s="2">
+      <c r="P46" s="38">
         <v>41.214953642735189</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="17">
+        <v>41.214953642735189</v>
+      </c>
+      <c r="R46" s="39">
         <v>43.351698230275886</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="S46" s="43">
         <v>48.573287615949475</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="39">
         <v>50.339311706005546</v>
       </c>
-      <c r="S46" s="2">
+      <c r="U46" s="43">
         <v>53.21826308069069</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="39">
         <v>58.898510038919866</v>
       </c>
-      <c r="U46" s="2">
+      <c r="W46" s="38">
         <v>58.788498456316468</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="17">
+        <v>58.788498456316468</v>
+      </c>
+      <c r="Y46" s="39">
         <v>62.246278755074421</v>
       </c>
-      <c r="W46" s="4">
+      <c r="Z46" s="34">
         <v>62.282546521729067</v>
       </c>
-      <c r="X46" s="4">
+      <c r="AA46" s="17">
         <v>69.210716282258588</v>
       </c>
-      <c r="Y46" s="4">
+      <c r="AB46" s="1">
         <v>76.10892281314824</v>
       </c>
-      <c r="Z46" s="4">
+      <c r="AC46" s="17">
+        <v>76.10892281314824</v>
+      </c>
+      <c r="AD46" s="17">
         <v>90.225207463588021</v>
       </c>
-      <c r="AA46" s="4">
+      <c r="AE46" s="17">
         <v>98.327624596920387</v>
       </c>
-      <c r="AB46" s="4">
+      <c r="AF46" s="24">
         <v>100</v>
       </c>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="28"/>
-      <c r="AG46" s="28"/>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="28"/>
+      <c r="AH46" s="16"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="15"/>
+      <c r="AM46" s="15"/>
+      <c r="AN46" s="15"/>
     </row>
-    <row r="47" spans="1:36">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="38">
         <v>8.5</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="39">
         <v>17.3</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="43">
         <v>17.288997729387731</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="39">
         <v>29.4</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="38">
         <v>24.7</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K47" s="39">
         <v>33.700000000000003</v>
       </c>
-      <c r="K47" s="2">
+      <c r="L47" s="43">
         <v>33.700000000000003</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="39">
         <v>38.4</v>
       </c>
-      <c r="M47" s="2">
+      <c r="N47" s="43">
         <v>36.260034517537406</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="39">
         <v>45.465372002382693</v>
       </c>
-      <c r="O47" s="2">
+      <c r="P47" s="38">
         <v>41.214947555391355</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="17">
+        <v>41.214947555391355</v>
+      </c>
+      <c r="R47" s="39">
         <v>48.411088394627967</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="S47" s="43">
         <v>49.813080040980772</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="39">
         <v>51.316054309741943</v>
       </c>
-      <c r="S47" s="2">
+      <c r="U47" s="43">
         <v>49.81308004098036</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="39">
         <v>56.850576952336091</v>
       </c>
-      <c r="U47" s="2">
+      <c r="W47" s="38">
         <v>59.697011249987412</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="17">
+        <v>59.697011249987412</v>
+      </c>
+      <c r="Y47" s="39">
         <v>59.84</v>
       </c>
-      <c r="W47" s="4">
+      <c r="Z47" s="34">
         <v>68.938516366593447</v>
       </c>
-      <c r="X47" s="4">
+      <c r="AA47" s="17">
         <v>76.359615952651495</v>
       </c>
-      <c r="Y47" s="4">
+      <c r="AB47" s="1">
+        <v>77.285092326482157</v>
+      </c>
+      <c r="AC47" s="17">
         <v>79.98611261014041</v>
       </c>
-      <c r="Z47" s="4">
+      <c r="AD47" s="17">
         <v>91.001375882160573</v>
       </c>
-      <c r="AA47" s="4">
+      <c r="AE47" s="17">
         <v>98.409956462853742</v>
       </c>
-      <c r="AB47" s="4">
+      <c r="AF47" s="24">
         <v>100</v>
       </c>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
+      <c r="AH47" s="16"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="15"/>
+      <c r="AK47" s="15"/>
+      <c r="AL47" s="15"/>
+      <c r="AM47" s="15"/>
+      <c r="AN47" s="15"/>
     </row>
-    <row r="48" spans="1:36">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="38">
         <v>8.5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="39">
         <v>11</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="43">
         <v>17.28900258482059</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="39">
         <v>18.8</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="38">
         <v>24.7</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K48" s="39">
         <v>25.7</v>
       </c>
-      <c r="K48" s="2">
+      <c r="L48" s="43">
         <v>28</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="39">
         <v>29.3</v>
       </c>
-      <c r="M48" s="2">
+      <c r="N48" s="43">
         <v>36.257229784412424</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="39">
         <v>36.574278236600982</v>
       </c>
-      <c r="O48" s="2">
+      <c r="P48" s="38">
         <v>41.214957356474912</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="17">
+        <v>41.214957356474912</v>
+      </c>
+      <c r="R48" s="39">
         <v>41.646774737472789</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="S48" s="43">
         <v>48.304157708219655</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="39">
         <v>44.698452540021236</v>
       </c>
-      <c r="S48" s="2">
+      <c r="U48" s="43">
         <v>55.392895792262173</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="39">
         <v>50.792326495864366</v>
       </c>
-      <c r="U48" s="2">
+      <c r="W48" s="38">
+        <v>58.462768635304066</v>
+      </c>
+      <c r="X48" s="17">
         <v>59.596415792401629</v>
       </c>
-      <c r="V48" s="3">
+      <c r="Y48" s="39">
         <v>60.026200056142976</v>
       </c>
-      <c r="W48" s="4">
+      <c r="Z48" s="34">
         <v>66.057749155371738</v>
       </c>
-      <c r="X48" s="4">
+      <c r="AA48" s="17">
         <v>73.325414083009704</v>
       </c>
-      <c r="Y48" s="4">
+      <c r="AB48" s="1">
+        <v>75.687224971266389</v>
+      </c>
+      <c r="AC48" s="17">
         <v>78.332401670292228</v>
       </c>
-      <c r="Z48" s="4">
+      <c r="AD48" s="17">
         <v>89.946923609661269</v>
       </c>
-      <c r="AA48" s="4">
+      <c r="AE48" s="17">
         <v>98.298105747988657</v>
       </c>
-      <c r="AB48" s="4">
+      <c r="AF48" s="24">
         <v>100</v>
       </c>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="28"/>
-      <c r="AJ48" s="28"/>
+      <c r="AH48" s="16"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+      <c r="AK48" s="15"/>
+      <c r="AL48" s="15"/>
+      <c r="AM48" s="15"/>
+      <c r="AN48" s="15"/>
     </row>
-    <row r="49" spans="1:36">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="38">
         <v>2</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="39">
         <v>15.1</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="43">
         <v>10.779078817064796</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="39">
         <v>18.7</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="38">
         <v>14.7</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="17">
+        <v>14.7</v>
+      </c>
+      <c r="K49" s="39">
         <v>22.7</v>
       </c>
-      <c r="K49" s="2">
+      <c r="L49" s="43">
         <v>22.7</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="39">
         <v>22.7</v>
       </c>
-      <c r="M49" s="2">
+      <c r="N49" s="43">
         <v>31.164974312191529</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="39">
         <v>34.605786186030279</v>
       </c>
-      <c r="O49" s="2">
+      <c r="P49" s="38">
         <v>38.239760251380488</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="17">
+        <v>38.239760251380488</v>
+      </c>
+      <c r="R49" s="39">
         <v>40.112780268394992</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="S49" s="43">
         <v>45.079079695606509</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="39">
         <v>43.403997896135174</v>
       </c>
-      <c r="S49" s="2">
+      <c r="U49" s="43">
         <v>50.358109272862833</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="39">
         <v>60.55974742259238</v>
       </c>
-      <c r="U49" s="2">
+      <c r="W49" s="38">
         <v>56.900167191214315</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="17">
+        <v>56.900167191214315</v>
+      </c>
+      <c r="Y49" s="39">
         <v>63.053464959437001</v>
       </c>
-      <c r="W49" s="4">
+      <c r="Z49" s="34">
         <v>62.680277916576379</v>
       </c>
-      <c r="X49" s="4">
+      <c r="AA49" s="17">
         <v>63.870002712710615</v>
       </c>
-      <c r="Y49" s="4">
+      <c r="AB49" s="1">
         <v>73.345717771429534</v>
       </c>
-      <c r="Z49" s="4">
+      <c r="AC49" s="17">
+        <v>73.345717771429534</v>
+      </c>
+      <c r="AD49" s="17">
         <v>89.142537419367144</v>
       </c>
-      <c r="AA49" s="4">
+      <c r="AE49" s="17">
         <v>98.13420024400007</v>
       </c>
-      <c r="AB49" s="4">
+      <c r="AF49" s="24">
         <v>100</v>
       </c>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
-      <c r="AG49" s="28"/>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="28"/>
-      <c r="AJ49" s="28"/>
+      <c r="AH49" s="16"/>
+      <c r="AI49" s="15"/>
+      <c r="AJ49" s="15"/>
+      <c r="AK49" s="15"/>
+      <c r="AL49" s="15"/>
+      <c r="AM49" s="15"/>
+      <c r="AN49" s="15"/>
     </row>
-    <row r="50" spans="1:36">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="38">
         <v>8.5</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="39">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="43">
         <v>17.289002615020323</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="39">
         <v>18.600000000000001</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="38">
         <v>24.7</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K50" s="39">
         <v>26.1</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L50" s="43">
         <v>28</v>
       </c>
-      <c r="L50" s="3">
+      <c r="M50" s="39">
         <v>28.8</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N50" s="43">
         <v>36.260042764206965</v>
       </c>
-      <c r="N50" s="3">
+      <c r="O50" s="39">
         <v>37.286678063133024</v>
       </c>
-      <c r="O50" s="2">
+      <c r="P50" s="38">
         <v>41.214957450827598</v>
       </c>
-      <c r="P50" s="3">
+      <c r="Q50" s="17">
+        <v>41.214957450827598</v>
+      </c>
+      <c r="R50" s="39">
         <v>42.24185402782242</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="S50" s="43">
         <v>48.541829007013483</v>
       </c>
-      <c r="R50" s="3">
+      <c r="T50" s="39">
         <v>46.783164626105396</v>
       </c>
-      <c r="S50" s="2">
+      <c r="U50" s="43">
         <v>55.06716079800777</v>
       </c>
-      <c r="T50" s="3">
+      <c r="V50" s="39">
         <v>50.530503374841629</v>
       </c>
-      <c r="U50" s="2">
+      <c r="W50" s="38">
+        <v>58.750423363017177</v>
+      </c>
+      <c r="X50" s="17">
         <v>59.889648411134658</v>
       </c>
-      <c r="V50" s="3">
+      <c r="Y50" s="39">
         <v>59.569517161140197</v>
       </c>
-      <c r="W50" s="4">
+      <c r="Z50" s="34">
         <v>67.123240204836648</v>
       </c>
-      <c r="X50" s="4">
+      <c r="AA50" s="17">
         <v>74.426664335982423</v>
       </c>
-      <c r="Y50" s="4">
+      <c r="AB50" s="1">
+        <v>76.059629471929284</v>
+      </c>
+      <c r="AC50" s="17">
         <v>78.717821250309555</v>
       </c>
-      <c r="Z50" s="4">
+      <c r="AD50" s="17">
         <v>90.192677874666586</v>
       </c>
-      <c r="AA50" s="4">
+      <c r="AE50" s="17">
         <v>98.324174063035045</v>
       </c>
-      <c r="AB50" s="4">
+      <c r="AF50" s="24">
         <v>100</v>
       </c>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="28"/>
-      <c r="AG50" s="28"/>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="28"/>
-      <c r="AJ50" s="28"/>
+      <c r="AH50" s="16"/>
+      <c r="AI50" s="15"/>
+      <c r="AJ50" s="15"/>
+      <c r="AK50" s="15"/>
+      <c r="AL50" s="15"/>
+      <c r="AM50" s="15"/>
+      <c r="AN50" s="15"/>
     </row>
-    <row r="51" spans="1:36">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="38">
         <v>8.5</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="39">
         <v>25.9</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="43">
         <v>17.289002483834839</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="39">
         <v>25.9</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="38">
         <v>24.7</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K51" s="39">
         <v>33.299999999999997</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L51" s="43">
         <v>33.299999999999997</v>
       </c>
-      <c r="L51" s="3">
+      <c r="M51" s="39">
         <v>33.299999999999997</v>
       </c>
-      <c r="M51" s="2">
+      <c r="N51" s="43">
         <v>36.26004358929071</v>
       </c>
-      <c r="N51" s="3">
+      <c r="O51" s="39">
         <v>41.395154287449735</v>
       </c>
-      <c r="O51" s="2">
+      <c r="P51" s="38">
         <v>41.214959029713619</v>
       </c>
-      <c r="P51" s="3">
+      <c r="Q51" s="17">
+        <v>41.214959029713619</v>
+      </c>
+      <c r="R51" s="39">
         <v>41.637312504147403</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="S51" s="43">
         <v>48.219980100179697</v>
       </c>
-      <c r="R51" s="3">
+      <c r="T51" s="39">
         <v>49.462170097235415</v>
       </c>
-      <c r="S51" s="2">
+      <c r="U51" s="43">
         <v>54.555726131238004</v>
       </c>
-      <c r="T51" s="3">
+      <c r="V51" s="39">
         <v>57.247564271667265</v>
       </c>
-      <c r="U51" s="2">
+      <c r="W51" s="38">
         <v>58.360886315320954</v>
       </c>
-      <c r="V51" s="3">
+      <c r="X51" s="17">
+        <v>58.360886315320954</v>
+      </c>
+      <c r="Y51" s="39">
         <v>58.96907216494845</v>
       </c>
-      <c r="W51" s="4">
+      <c r="Z51" s="34">
         <v>64.615092597429211</v>
       </c>
-      <c r="X51" s="4">
+      <c r="AA51" s="17">
         <v>71.492868361837452</v>
       </c>
-      <c r="Y51" s="4">
+      <c r="AB51" s="1">
         <v>75.555326124737519</v>
       </c>
-      <c r="Z51" s="4">
+      <c r="AC51" s="17">
+        <v>75.555326124737519</v>
+      </c>
+      <c r="AD51" s="17">
         <v>89.859882015398625</v>
       </c>
-      <c r="AA51" s="4">
+      <c r="AE51" s="17">
         <v>98.288872828731627</v>
       </c>
-      <c r="AB51" s="4">
+      <c r="AF51" s="24">
         <v>100</v>
       </c>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="28"/>
-      <c r="AG51" s="28"/>
-      <c r="AH51" s="28"/>
-      <c r="AI51" s="28"/>
-      <c r="AJ51" s="28"/>
+      <c r="AH51" s="16"/>
+      <c r="AI51" s="15"/>
+      <c r="AJ51" s="15"/>
+      <c r="AK51" s="15"/>
+      <c r="AL51" s="15"/>
+      <c r="AM51" s="15"/>
+      <c r="AN51" s="15"/>
     </row>
-    <row r="52" spans="1:36">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="38">
         <v>8.5</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="39">
         <v>19.7</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="43">
         <v>17.289002915361319</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="39">
         <v>20.6</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="38">
         <v>24.7</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="K52" s="39">
         <v>26.2</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L52" s="43">
         <v>27.8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="39">
         <v>29</v>
       </c>
-      <c r="M52" s="2">
+      <c r="N52" s="43">
         <v>35.549097854053983</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="39">
         <v>37.563789041095582</v>
       </c>
-      <c r="O52" s="2">
+      <c r="P52" s="38">
         <v>40.199321479249875</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="17">
+        <v>40.199321479249875</v>
+      </c>
+      <c r="R52" s="39">
         <v>42.821809658039186</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="S52" s="43">
         <v>47.777115698127574</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="39">
         <v>47.809074881618947</v>
       </c>
-      <c r="S52" s="2">
+      <c r="U52" s="43">
         <v>53.085580759021333</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="39">
         <v>53.790022015425308</v>
       </c>
-      <c r="U52" s="2">
+      <c r="W52" s="38">
+        <v>58.572391352586983</v>
+      </c>
+      <c r="X52" s="17">
         <v>59.708164193789145</v>
       </c>
-      <c r="V52" s="3">
+      <c r="Y52" s="39">
         <v>60.548617305976812</v>
       </c>
-      <c r="W52" s="4">
+      <c r="Z52" s="34">
         <v>65.770144177244177</v>
       </c>
-      <c r="X52" s="4">
+      <c r="AA52" s="17">
         <v>73.051605843534489</v>
       </c>
-      <c r="Y52" s="4">
+      <c r="AB52" s="1">
+        <v>75.830907300774257</v>
+      </c>
+      <c r="AC52" s="17">
         <v>78.48110551592103</v>
       </c>
-      <c r="Z52" s="4">
+      <c r="AD52" s="17">
         <v>90.041741320716156</v>
       </c>
-      <c r="AA52" s="4">
+      <c r="AE52" s="17">
         <v>98.308163511054204</v>
       </c>
-      <c r="AB52" s="4">
+      <c r="AF52" s="24">
         <v>100</v>
       </c>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="28"/>
-      <c r="AG52" s="28"/>
-      <c r="AH52" s="28"/>
-      <c r="AI52" s="28"/>
-      <c r="AJ52" s="28"/>
+      <c r="AH52" s="16"/>
+      <c r="AI52" s="15"/>
+      <c r="AJ52" s="15"/>
+      <c r="AK52" s="15"/>
+      <c r="AL52" s="15"/>
+      <c r="AM52" s="15"/>
+      <c r="AN52" s="15"/>
     </row>
-    <row r="53" spans="1:36">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="38">
         <v>16.600000000000001</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="39">
         <v>18.3</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="43">
         <v>22.8</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="39">
         <v>22.8</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="38">
         <v>26.4</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="17">
+        <v>26.4</v>
+      </c>
+      <c r="K53" s="39">
         <v>26.7</v>
       </c>
-      <c r="K53" s="2">
+      <c r="L53" s="43">
         <v>35.1</v>
       </c>
-      <c r="L53" s="3">
+      <c r="M53" s="39">
         <v>35.299999999999997</v>
       </c>
-      <c r="M53" s="7">
+      <c r="N53" s="43">
         <v>37.6203482454398</v>
       </c>
-      <c r="N53" s="8">
+      <c r="O53" s="45">
         <v>35.252200604431103</v>
       </c>
-      <c r="O53" s="7">
+      <c r="P53" s="46">
         <v>43.289726503479727</v>
       </c>
-      <c r="P53" s="8">
+      <c r="Q53" s="17">
+        <v>43.289726503479727</v>
+      </c>
+      <c r="R53" s="45">
         <v>43.79532289220267</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="S53" s="43">
         <v>46.850154671660398</v>
       </c>
-      <c r="R53" s="8">
+      <c r="T53" s="45">
         <v>45.017257611677188</v>
       </c>
-      <c r="S53" s="7">
+      <c r="U53" s="43">
         <v>51.852988941441502</v>
       </c>
-      <c r="T53" s="8">
+      <c r="V53" s="45">
         <v>45.849512551765685</v>
       </c>
-      <c r="U53" s="7">
+      <c r="W53" s="46">
+        <v>57.26671053186854</v>
+      </c>
+      <c r="X53" s="17">
         <v>59.092434649753208</v>
       </c>
-      <c r="V53" s="8">
+      <c r="Y53" s="45">
         <v>57.650774994490561</v>
       </c>
-      <c r="W53" s="4">
+      <c r="Z53" s="34">
         <v>68.699757049321192</v>
       </c>
-      <c r="X53" s="4">
+      <c r="AA53" s="17">
         <v>74.467761864021512</v>
       </c>
-      <c r="Y53" s="4">
+      <c r="AB53" s="2">
+        <v>73.602935445936509</v>
+      </c>
+      <c r="AC53" s="17">
         <v>78.250244980106771</v>
       </c>
-      <c r="Z53" s="4">
+      <c r="AD53" s="17">
         <v>90.154196318103473</v>
       </c>
-      <c r="AA53" s="4">
+      <c r="AE53" s="17">
         <v>97.94657705111166</v>
       </c>
-      <c r="AB53" s="4">
+      <c r="AF53" s="25">
         <v>100</v>
       </c>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="28"/>
-      <c r="AG53" s="28"/>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="28"/>
-      <c r="AJ53" s="28"/>
+      <c r="AH53" s="16"/>
+      <c r="AI53" s="15"/>
+      <c r="AJ53" s="15"/>
+      <c r="AK53" s="15"/>
+      <c r="AL53" s="15"/>
+      <c r="AM53" s="15"/>
+      <c r="AN53" s="15"/>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="26"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="27"/>
-      <c r="E54" s="5">
+      <c r="E54" s="40">
         <v>7.4</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="41">
         <v>10.4</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="44">
         <v>13.669956929252777</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="41">
         <v>15.2</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="40">
         <v>18.8</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="29">
+        <v>18.8</v>
+      </c>
+      <c r="K54" s="41">
         <v>21.4</v>
       </c>
-      <c r="K54" s="5">
+      <c r="L54" s="44">
         <v>22.6</v>
       </c>
-      <c r="L54" s="6">
+      <c r="M54" s="41">
         <v>25</v>
       </c>
-      <c r="M54" s="5">
+      <c r="N54" s="44">
         <v>27.155414711006014</v>
       </c>
-      <c r="N54" s="6">
+      <c r="O54" s="41">
         <v>29.512647628380982</v>
       </c>
-      <c r="O54" s="5">
+      <c r="P54" s="40">
         <v>31.53258268811701</v>
       </c>
-      <c r="P54" s="6">
+      <c r="Q54" s="29">
+        <v>31.53258268811701</v>
+      </c>
+      <c r="R54" s="41">
         <v>34.048438654117128</v>
       </c>
-      <c r="Q54" s="5">
+      <c r="S54" s="44">
         <v>38.823315500896719</v>
       </c>
-      <c r="R54" s="6">
+      <c r="T54" s="41">
         <v>39.973315036011208</v>
       </c>
-      <c r="S54" s="5">
+      <c r="U54" s="44">
         <v>43.517386827192603</v>
       </c>
-      <c r="T54" s="6">
+      <c r="V54" s="41">
         <v>47.482278674618797</v>
       </c>
-      <c r="U54" s="5">
+      <c r="W54" s="40">
+        <v>48.472632647837905</v>
+      </c>
+      <c r="X54" s="29">
         <v>49.651487462066306</v>
       </c>
-      <c r="V54" s="6">
+      <c r="Y54" s="41">
         <v>52.689361096101564</v>
       </c>
-      <c r="W54" s="9">
+      <c r="Z54" s="35">
         <v>57.718958200979337</v>
       </c>
-      <c r="X54" s="9">
+      <c r="AA54" s="29">
         <v>63.185817663047992</v>
       </c>
-      <c r="Y54" s="9">
+      <c r="AB54" s="28">
+        <v>67.623803118330684</v>
+      </c>
+      <c r="AC54" s="29">
         <v>70.250416673514849</v>
       </c>
-      <c r="Z54" s="9">
+      <c r="AD54" s="29">
         <v>87.505660314496467</v>
       </c>
-      <c r="AA54" s="9">
+      <c r="AE54" s="29">
         <v>97.517107570937682</v>
       </c>
-      <c r="AB54" s="9">
+      <c r="AF54" s="30">
         <v>100</v>
       </c>
-      <c r="AC54" s="29"/>
-      <c r="AD54" s="29"/>
-      <c r="AE54" s="28"/>
-      <c r="AF54" s="28"/>
-      <c r="AG54" s="28"/>
-      <c r="AH54" s="28"/>
-      <c r="AI54" s="28"/>
-      <c r="AJ54" s="28"/>
+      <c r="AH54" s="16"/>
+      <c r="AI54" s="15"/>
+      <c r="AJ54" s="15"/>
+      <c r="AK54" s="15"/>
+      <c r="AL54" s="15"/>
+      <c r="AM54" s="15"/>
+      <c r="AN54" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A4:T55">
     <sortCondition ref="A4:A55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.42578125" style="21" customWidth="1"/>
-    <col min="6" max="253" width="9.140625" style="18"/>
-    <col min="254" max="254" width="5" style="18" customWidth="1"/>
-    <col min="255" max="255" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="10.28515625" style="18" customWidth="1"/>
-    <col min="259" max="259" width="84.42578125" style="18" customWidth="1"/>
-    <col min="260" max="509" width="9.140625" style="18"/>
-    <col min="510" max="510" width="5" style="18" customWidth="1"/>
-    <col min="511" max="511" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="10.28515625" style="18" customWidth="1"/>
-    <col min="515" max="515" width="84.42578125" style="18" customWidth="1"/>
-    <col min="516" max="765" width="9.140625" style="18"/>
-    <col min="766" max="766" width="5" style="18" customWidth="1"/>
-    <col min="767" max="767" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="10.28515625" style="18" customWidth="1"/>
-    <col min="771" max="771" width="84.42578125" style="18" customWidth="1"/>
-    <col min="772" max="1021" width="9.140625" style="18"/>
-    <col min="1022" max="1022" width="5" style="18" customWidth="1"/>
-    <col min="1023" max="1023" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1024" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="10.28515625" style="18" customWidth="1"/>
-    <col min="1027" max="1027" width="84.42578125" style="18" customWidth="1"/>
-    <col min="1028" max="1277" width="9.140625" style="18"/>
-    <col min="1278" max="1278" width="5" style="18" customWidth="1"/>
-    <col min="1279" max="1279" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="1280" max="1280" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="10.28515625" style="18" customWidth="1"/>
-    <col min="1283" max="1283" width="84.42578125" style="18" customWidth="1"/>
-    <col min="1284" max="1533" width="9.140625" style="18"/>
-    <col min="1534" max="1534" width="5" style="18" customWidth="1"/>
-    <col min="1535" max="1535" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="1536" max="1536" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="10.28515625" style="18" customWidth="1"/>
-    <col min="1539" max="1539" width="84.42578125" style="18" customWidth="1"/>
-    <col min="1540" max="1789" width="9.140625" style="18"/>
-    <col min="1790" max="1790" width="5" style="18" customWidth="1"/>
-    <col min="1791" max="1791" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="1792" max="1792" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="10.28515625" style="18" customWidth="1"/>
-    <col min="1795" max="1795" width="84.42578125" style="18" customWidth="1"/>
-    <col min="1796" max="2045" width="9.140625" style="18"/>
-    <col min="2046" max="2046" width="5" style="18" customWidth="1"/>
-    <col min="2047" max="2047" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2048" max="2048" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="10.28515625" style="18" customWidth="1"/>
-    <col min="2051" max="2051" width="84.42578125" style="18" customWidth="1"/>
-    <col min="2052" max="2301" width="9.140625" style="18"/>
-    <col min="2302" max="2302" width="5" style="18" customWidth="1"/>
-    <col min="2303" max="2303" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2304" max="2304" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="10.28515625" style="18" customWidth="1"/>
-    <col min="2307" max="2307" width="84.42578125" style="18" customWidth="1"/>
-    <col min="2308" max="2557" width="9.140625" style="18"/>
-    <col min="2558" max="2558" width="5" style="18" customWidth="1"/>
-    <col min="2559" max="2559" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2560" max="2560" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="10.28515625" style="18" customWidth="1"/>
-    <col min="2563" max="2563" width="84.42578125" style="18" customWidth="1"/>
-    <col min="2564" max="2813" width="9.140625" style="18"/>
-    <col min="2814" max="2814" width="5" style="18" customWidth="1"/>
-    <col min="2815" max="2815" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2816" max="2816" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="10.28515625" style="18" customWidth="1"/>
-    <col min="2819" max="2819" width="84.42578125" style="18" customWidth="1"/>
-    <col min="2820" max="3069" width="9.140625" style="18"/>
-    <col min="3070" max="3070" width="5" style="18" customWidth="1"/>
-    <col min="3071" max="3071" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3072" max="3072" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="10.28515625" style="18" customWidth="1"/>
-    <col min="3075" max="3075" width="84.42578125" style="18" customWidth="1"/>
-    <col min="3076" max="3325" width="9.140625" style="18"/>
-    <col min="3326" max="3326" width="5" style="18" customWidth="1"/>
-    <col min="3327" max="3327" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3328" max="3328" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="10.28515625" style="18" customWidth="1"/>
-    <col min="3331" max="3331" width="84.42578125" style="18" customWidth="1"/>
-    <col min="3332" max="3581" width="9.140625" style="18"/>
-    <col min="3582" max="3582" width="5" style="18" customWidth="1"/>
-    <col min="3583" max="3583" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3584" max="3584" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="10.28515625" style="18" customWidth="1"/>
-    <col min="3587" max="3587" width="84.42578125" style="18" customWidth="1"/>
-    <col min="3588" max="3837" width="9.140625" style="18"/>
-    <col min="3838" max="3838" width="5" style="18" customWidth="1"/>
-    <col min="3839" max="3839" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3840" max="3840" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="10.28515625" style="18" customWidth="1"/>
-    <col min="3843" max="3843" width="84.42578125" style="18" customWidth="1"/>
-    <col min="3844" max="4093" width="9.140625" style="18"/>
-    <col min="4094" max="4094" width="5" style="18" customWidth="1"/>
-    <col min="4095" max="4095" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4096" max="4096" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="10.28515625" style="18" customWidth="1"/>
-    <col min="4099" max="4099" width="84.42578125" style="18" customWidth="1"/>
-    <col min="4100" max="4349" width="9.140625" style="18"/>
-    <col min="4350" max="4350" width="5" style="18" customWidth="1"/>
-    <col min="4351" max="4351" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4352" max="4352" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="10.28515625" style="18" customWidth="1"/>
-    <col min="4355" max="4355" width="84.42578125" style="18" customWidth="1"/>
-    <col min="4356" max="4605" width="9.140625" style="18"/>
-    <col min="4606" max="4606" width="5" style="18" customWidth="1"/>
-    <col min="4607" max="4607" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4608" max="4608" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="10.28515625" style="18" customWidth="1"/>
-    <col min="4611" max="4611" width="84.42578125" style="18" customWidth="1"/>
-    <col min="4612" max="4861" width="9.140625" style="18"/>
-    <col min="4862" max="4862" width="5" style="18" customWidth="1"/>
-    <col min="4863" max="4863" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4864" max="4864" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="10.28515625" style="18" customWidth="1"/>
-    <col min="4867" max="4867" width="84.42578125" style="18" customWidth="1"/>
-    <col min="4868" max="5117" width="9.140625" style="18"/>
-    <col min="5118" max="5118" width="5" style="18" customWidth="1"/>
-    <col min="5119" max="5119" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5120" max="5120" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="10.28515625" style="18" customWidth="1"/>
-    <col min="5123" max="5123" width="84.42578125" style="18" customWidth="1"/>
-    <col min="5124" max="5373" width="9.140625" style="18"/>
-    <col min="5374" max="5374" width="5" style="18" customWidth="1"/>
-    <col min="5375" max="5375" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5376" max="5376" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="10.28515625" style="18" customWidth="1"/>
-    <col min="5379" max="5379" width="84.42578125" style="18" customWidth="1"/>
-    <col min="5380" max="5629" width="9.140625" style="18"/>
-    <col min="5630" max="5630" width="5" style="18" customWidth="1"/>
-    <col min="5631" max="5631" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5632" max="5632" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="10.28515625" style="18" customWidth="1"/>
-    <col min="5635" max="5635" width="84.42578125" style="18" customWidth="1"/>
-    <col min="5636" max="5885" width="9.140625" style="18"/>
-    <col min="5886" max="5886" width="5" style="18" customWidth="1"/>
-    <col min="5887" max="5887" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5888" max="5888" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="10.28515625" style="18" customWidth="1"/>
-    <col min="5891" max="5891" width="84.42578125" style="18" customWidth="1"/>
-    <col min="5892" max="6141" width="9.140625" style="18"/>
-    <col min="6142" max="6142" width="5" style="18" customWidth="1"/>
-    <col min="6143" max="6143" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6144" max="6144" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="10.28515625" style="18" customWidth="1"/>
-    <col min="6147" max="6147" width="84.42578125" style="18" customWidth="1"/>
-    <col min="6148" max="6397" width="9.140625" style="18"/>
-    <col min="6398" max="6398" width="5" style="18" customWidth="1"/>
-    <col min="6399" max="6399" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6400" max="6400" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="10.28515625" style="18" customWidth="1"/>
-    <col min="6403" max="6403" width="84.42578125" style="18" customWidth="1"/>
-    <col min="6404" max="6653" width="9.140625" style="18"/>
-    <col min="6654" max="6654" width="5" style="18" customWidth="1"/>
-    <col min="6655" max="6655" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6656" max="6656" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="10.28515625" style="18" customWidth="1"/>
-    <col min="6659" max="6659" width="84.42578125" style="18" customWidth="1"/>
-    <col min="6660" max="6909" width="9.140625" style="18"/>
-    <col min="6910" max="6910" width="5" style="18" customWidth="1"/>
-    <col min="6911" max="6911" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6912" max="6912" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="10.28515625" style="18" customWidth="1"/>
-    <col min="6915" max="6915" width="84.42578125" style="18" customWidth="1"/>
-    <col min="6916" max="7165" width="9.140625" style="18"/>
-    <col min="7166" max="7166" width="5" style="18" customWidth="1"/>
-    <col min="7167" max="7167" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7168" max="7168" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="10.28515625" style="18" customWidth="1"/>
-    <col min="7171" max="7171" width="84.42578125" style="18" customWidth="1"/>
-    <col min="7172" max="7421" width="9.140625" style="18"/>
-    <col min="7422" max="7422" width="5" style="18" customWidth="1"/>
-    <col min="7423" max="7423" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7424" max="7424" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="10.28515625" style="18" customWidth="1"/>
-    <col min="7427" max="7427" width="84.42578125" style="18" customWidth="1"/>
-    <col min="7428" max="7677" width="9.140625" style="18"/>
-    <col min="7678" max="7678" width="5" style="18" customWidth="1"/>
-    <col min="7679" max="7679" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7680" max="7680" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="10.28515625" style="18" customWidth="1"/>
-    <col min="7683" max="7683" width="84.42578125" style="18" customWidth="1"/>
-    <col min="7684" max="7933" width="9.140625" style="18"/>
-    <col min="7934" max="7934" width="5" style="18" customWidth="1"/>
-    <col min="7935" max="7935" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7936" max="7936" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="10.28515625" style="18" customWidth="1"/>
-    <col min="7939" max="7939" width="84.42578125" style="18" customWidth="1"/>
-    <col min="7940" max="8189" width="9.140625" style="18"/>
-    <col min="8190" max="8190" width="5" style="18" customWidth="1"/>
-    <col min="8191" max="8191" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8192" max="8192" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="10.28515625" style="18" customWidth="1"/>
-    <col min="8195" max="8195" width="84.42578125" style="18" customWidth="1"/>
-    <col min="8196" max="8445" width="9.140625" style="18"/>
-    <col min="8446" max="8446" width="5" style="18" customWidth="1"/>
-    <col min="8447" max="8447" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8448" max="8448" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="10.28515625" style="18" customWidth="1"/>
-    <col min="8451" max="8451" width="84.42578125" style="18" customWidth="1"/>
-    <col min="8452" max="8701" width="9.140625" style="18"/>
-    <col min="8702" max="8702" width="5" style="18" customWidth="1"/>
-    <col min="8703" max="8703" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8704" max="8704" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="10.28515625" style="18" customWidth="1"/>
-    <col min="8707" max="8707" width="84.42578125" style="18" customWidth="1"/>
-    <col min="8708" max="8957" width="9.140625" style="18"/>
-    <col min="8958" max="8958" width="5" style="18" customWidth="1"/>
-    <col min="8959" max="8959" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8960" max="8960" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="10.28515625" style="18" customWidth="1"/>
-    <col min="8963" max="8963" width="84.42578125" style="18" customWidth="1"/>
-    <col min="8964" max="9213" width="9.140625" style="18"/>
-    <col min="9214" max="9214" width="5" style="18" customWidth="1"/>
-    <col min="9215" max="9215" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9216" max="9216" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="10.28515625" style="18" customWidth="1"/>
-    <col min="9219" max="9219" width="84.42578125" style="18" customWidth="1"/>
-    <col min="9220" max="9469" width="9.140625" style="18"/>
-    <col min="9470" max="9470" width="5" style="18" customWidth="1"/>
-    <col min="9471" max="9471" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9472" max="9472" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="10.28515625" style="18" customWidth="1"/>
-    <col min="9475" max="9475" width="84.42578125" style="18" customWidth="1"/>
-    <col min="9476" max="9725" width="9.140625" style="18"/>
-    <col min="9726" max="9726" width="5" style="18" customWidth="1"/>
-    <col min="9727" max="9727" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9728" max="9728" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="10.28515625" style="18" customWidth="1"/>
-    <col min="9731" max="9731" width="84.42578125" style="18" customWidth="1"/>
-    <col min="9732" max="9981" width="9.140625" style="18"/>
-    <col min="9982" max="9982" width="5" style="18" customWidth="1"/>
-    <col min="9983" max="9983" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9984" max="9984" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="10.28515625" style="18" customWidth="1"/>
-    <col min="9987" max="9987" width="84.42578125" style="18" customWidth="1"/>
-    <col min="9988" max="10237" width="9.140625" style="18"/>
-    <col min="10238" max="10238" width="5" style="18" customWidth="1"/>
-    <col min="10239" max="10239" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10240" max="10240" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="10.28515625" style="18" customWidth="1"/>
-    <col min="10243" max="10243" width="84.42578125" style="18" customWidth="1"/>
-    <col min="10244" max="10493" width="9.140625" style="18"/>
-    <col min="10494" max="10494" width="5" style="18" customWidth="1"/>
-    <col min="10495" max="10495" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10496" max="10496" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="10.28515625" style="18" customWidth="1"/>
-    <col min="10499" max="10499" width="84.42578125" style="18" customWidth="1"/>
-    <col min="10500" max="10749" width="9.140625" style="18"/>
-    <col min="10750" max="10750" width="5" style="18" customWidth="1"/>
-    <col min="10751" max="10751" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10752" max="10752" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="10.28515625" style="18" customWidth="1"/>
-    <col min="10755" max="10755" width="84.42578125" style="18" customWidth="1"/>
-    <col min="10756" max="11005" width="9.140625" style="18"/>
-    <col min="11006" max="11006" width="5" style="18" customWidth="1"/>
-    <col min="11007" max="11007" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11008" max="11008" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="10.28515625" style="18" customWidth="1"/>
-    <col min="11011" max="11011" width="84.42578125" style="18" customWidth="1"/>
-    <col min="11012" max="11261" width="9.140625" style="18"/>
-    <col min="11262" max="11262" width="5" style="18" customWidth="1"/>
-    <col min="11263" max="11263" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11264" max="11264" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="10.28515625" style="18" customWidth="1"/>
-    <col min="11267" max="11267" width="84.42578125" style="18" customWidth="1"/>
-    <col min="11268" max="11517" width="9.140625" style="18"/>
-    <col min="11518" max="11518" width="5" style="18" customWidth="1"/>
-    <col min="11519" max="11519" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11520" max="11520" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="10.28515625" style="18" customWidth="1"/>
-    <col min="11523" max="11523" width="84.42578125" style="18" customWidth="1"/>
-    <col min="11524" max="11773" width="9.140625" style="18"/>
-    <col min="11774" max="11774" width="5" style="18" customWidth="1"/>
-    <col min="11775" max="11775" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11776" max="11776" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="10.28515625" style="18" customWidth="1"/>
-    <col min="11779" max="11779" width="84.42578125" style="18" customWidth="1"/>
-    <col min="11780" max="12029" width="9.140625" style="18"/>
-    <col min="12030" max="12030" width="5" style="18" customWidth="1"/>
-    <col min="12031" max="12031" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12032" max="12032" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="10.28515625" style="18" customWidth="1"/>
-    <col min="12035" max="12035" width="84.42578125" style="18" customWidth="1"/>
-    <col min="12036" max="12285" width="9.140625" style="18"/>
-    <col min="12286" max="12286" width="5" style="18" customWidth="1"/>
-    <col min="12287" max="12287" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12288" max="12288" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="10.28515625" style="18" customWidth="1"/>
-    <col min="12291" max="12291" width="84.42578125" style="18" customWidth="1"/>
-    <col min="12292" max="12541" width="9.140625" style="18"/>
-    <col min="12542" max="12542" width="5" style="18" customWidth="1"/>
-    <col min="12543" max="12543" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12544" max="12544" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="10.28515625" style="18" customWidth="1"/>
-    <col min="12547" max="12547" width="84.42578125" style="18" customWidth="1"/>
-    <col min="12548" max="12797" width="9.140625" style="18"/>
-    <col min="12798" max="12798" width="5" style="18" customWidth="1"/>
-    <col min="12799" max="12799" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12800" max="12800" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="10.28515625" style="18" customWidth="1"/>
-    <col min="12803" max="12803" width="84.42578125" style="18" customWidth="1"/>
-    <col min="12804" max="13053" width="9.140625" style="18"/>
-    <col min="13054" max="13054" width="5" style="18" customWidth="1"/>
-    <col min="13055" max="13055" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13056" max="13056" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="10.28515625" style="18" customWidth="1"/>
-    <col min="13059" max="13059" width="84.42578125" style="18" customWidth="1"/>
-    <col min="13060" max="13309" width="9.140625" style="18"/>
-    <col min="13310" max="13310" width="5" style="18" customWidth="1"/>
-    <col min="13311" max="13311" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13312" max="13312" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="10.28515625" style="18" customWidth="1"/>
-    <col min="13315" max="13315" width="84.42578125" style="18" customWidth="1"/>
-    <col min="13316" max="13565" width="9.140625" style="18"/>
-    <col min="13566" max="13566" width="5" style="18" customWidth="1"/>
-    <col min="13567" max="13567" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13568" max="13568" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="10.28515625" style="18" customWidth="1"/>
-    <col min="13571" max="13571" width="84.42578125" style="18" customWidth="1"/>
-    <col min="13572" max="13821" width="9.140625" style="18"/>
-    <col min="13822" max="13822" width="5" style="18" customWidth="1"/>
-    <col min="13823" max="13823" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13824" max="13824" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="10.28515625" style="18" customWidth="1"/>
-    <col min="13827" max="13827" width="84.42578125" style="18" customWidth="1"/>
-    <col min="13828" max="14077" width="9.140625" style="18"/>
-    <col min="14078" max="14078" width="5" style="18" customWidth="1"/>
-    <col min="14079" max="14079" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14080" max="14080" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="10.28515625" style="18" customWidth="1"/>
-    <col min="14083" max="14083" width="84.42578125" style="18" customWidth="1"/>
-    <col min="14084" max="14333" width="9.140625" style="18"/>
-    <col min="14334" max="14334" width="5" style="18" customWidth="1"/>
-    <col min="14335" max="14335" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14336" max="14336" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="10.28515625" style="18" customWidth="1"/>
-    <col min="14339" max="14339" width="84.42578125" style="18" customWidth="1"/>
-    <col min="14340" max="14589" width="9.140625" style="18"/>
-    <col min="14590" max="14590" width="5" style="18" customWidth="1"/>
-    <col min="14591" max="14591" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14592" max="14592" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="10.28515625" style="18" customWidth="1"/>
-    <col min="14595" max="14595" width="84.42578125" style="18" customWidth="1"/>
-    <col min="14596" max="14845" width="9.140625" style="18"/>
-    <col min="14846" max="14846" width="5" style="18" customWidth="1"/>
-    <col min="14847" max="14847" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14848" max="14848" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="10.28515625" style="18" customWidth="1"/>
-    <col min="14851" max="14851" width="84.42578125" style="18" customWidth="1"/>
-    <col min="14852" max="15101" width="9.140625" style="18"/>
-    <col min="15102" max="15102" width="5" style="18" customWidth="1"/>
-    <col min="15103" max="15103" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15104" max="15104" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="10.28515625" style="18" customWidth="1"/>
-    <col min="15107" max="15107" width="84.42578125" style="18" customWidth="1"/>
-    <col min="15108" max="15357" width="9.140625" style="18"/>
-    <col min="15358" max="15358" width="5" style="18" customWidth="1"/>
-    <col min="15359" max="15359" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15360" max="15360" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="10.28515625" style="18" customWidth="1"/>
-    <col min="15363" max="15363" width="84.42578125" style="18" customWidth="1"/>
-    <col min="15364" max="15613" width="9.140625" style="18"/>
-    <col min="15614" max="15614" width="5" style="18" customWidth="1"/>
-    <col min="15615" max="15615" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15616" max="15616" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="10.28515625" style="18" customWidth="1"/>
-    <col min="15619" max="15619" width="84.42578125" style="18" customWidth="1"/>
-    <col min="15620" max="15869" width="9.140625" style="18"/>
-    <col min="15870" max="15870" width="5" style="18" customWidth="1"/>
-    <col min="15871" max="15871" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15872" max="15872" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="10.28515625" style="18" customWidth="1"/>
-    <col min="15875" max="15875" width="84.42578125" style="18" customWidth="1"/>
-    <col min="15876" max="16125" width="9.140625" style="18"/>
-    <col min="16126" max="16126" width="5" style="18" customWidth="1"/>
-    <col min="16127" max="16127" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16128" max="16128" width="85" style="18" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="10.28515625" style="18" customWidth="1"/>
-    <col min="16131" max="16131" width="84.42578125" style="18" customWidth="1"/>
-    <col min="16132" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="38.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118.140625" style="14" customWidth="1"/>
+    <col min="6" max="253" width="9.140625" style="11"/>
+    <col min="254" max="254" width="5" style="11" customWidth="1"/>
+    <col min="255" max="255" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.28515625" style="11" customWidth="1"/>
+    <col min="259" max="259" width="84.42578125" style="11" customWidth="1"/>
+    <col min="260" max="509" width="9.140625" style="11"/>
+    <col min="510" max="510" width="5" style="11" customWidth="1"/>
+    <col min="511" max="511" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="10.28515625" style="11" customWidth="1"/>
+    <col min="515" max="515" width="84.42578125" style="11" customWidth="1"/>
+    <col min="516" max="765" width="9.140625" style="11"/>
+    <col min="766" max="766" width="5" style="11" customWidth="1"/>
+    <col min="767" max="767" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="10.28515625" style="11" customWidth="1"/>
+    <col min="771" max="771" width="84.42578125" style="11" customWidth="1"/>
+    <col min="772" max="1021" width="9.140625" style="11"/>
+    <col min="1022" max="1022" width="5" style="11" customWidth="1"/>
+    <col min="1023" max="1023" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1024" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.28515625" style="11" customWidth="1"/>
+    <col min="1027" max="1027" width="84.42578125" style="11" customWidth="1"/>
+    <col min="1028" max="1277" width="9.140625" style="11"/>
+    <col min="1278" max="1278" width="5" style="11" customWidth="1"/>
+    <col min="1279" max="1279" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1280" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.28515625" style="11" customWidth="1"/>
+    <col min="1283" max="1283" width="84.42578125" style="11" customWidth="1"/>
+    <col min="1284" max="1533" width="9.140625" style="11"/>
+    <col min="1534" max="1534" width="5" style="11" customWidth="1"/>
+    <col min="1535" max="1535" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1536" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.28515625" style="11" customWidth="1"/>
+    <col min="1539" max="1539" width="84.42578125" style="11" customWidth="1"/>
+    <col min="1540" max="1789" width="9.140625" style="11"/>
+    <col min="1790" max="1790" width="5" style="11" customWidth="1"/>
+    <col min="1791" max="1791" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1792" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.28515625" style="11" customWidth="1"/>
+    <col min="1795" max="1795" width="84.42578125" style="11" customWidth="1"/>
+    <col min="1796" max="2045" width="9.140625" style="11"/>
+    <col min="2046" max="2046" width="5" style="11" customWidth="1"/>
+    <col min="2047" max="2047" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2048" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.28515625" style="11" customWidth="1"/>
+    <col min="2051" max="2051" width="84.42578125" style="11" customWidth="1"/>
+    <col min="2052" max="2301" width="9.140625" style="11"/>
+    <col min="2302" max="2302" width="5" style="11" customWidth="1"/>
+    <col min="2303" max="2303" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2304" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.28515625" style="11" customWidth="1"/>
+    <col min="2307" max="2307" width="84.42578125" style="11" customWidth="1"/>
+    <col min="2308" max="2557" width="9.140625" style="11"/>
+    <col min="2558" max="2558" width="5" style="11" customWidth="1"/>
+    <col min="2559" max="2559" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2560" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.28515625" style="11" customWidth="1"/>
+    <col min="2563" max="2563" width="84.42578125" style="11" customWidth="1"/>
+    <col min="2564" max="2813" width="9.140625" style="11"/>
+    <col min="2814" max="2814" width="5" style="11" customWidth="1"/>
+    <col min="2815" max="2815" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2816" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.28515625" style="11" customWidth="1"/>
+    <col min="2819" max="2819" width="84.42578125" style="11" customWidth="1"/>
+    <col min="2820" max="3069" width="9.140625" style="11"/>
+    <col min="3070" max="3070" width="5" style="11" customWidth="1"/>
+    <col min="3071" max="3071" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3072" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.28515625" style="11" customWidth="1"/>
+    <col min="3075" max="3075" width="84.42578125" style="11" customWidth="1"/>
+    <col min="3076" max="3325" width="9.140625" style="11"/>
+    <col min="3326" max="3326" width="5" style="11" customWidth="1"/>
+    <col min="3327" max="3327" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3328" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.28515625" style="11" customWidth="1"/>
+    <col min="3331" max="3331" width="84.42578125" style="11" customWidth="1"/>
+    <col min="3332" max="3581" width="9.140625" style="11"/>
+    <col min="3582" max="3582" width="5" style="11" customWidth="1"/>
+    <col min="3583" max="3583" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3584" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.28515625" style="11" customWidth="1"/>
+    <col min="3587" max="3587" width="84.42578125" style="11" customWidth="1"/>
+    <col min="3588" max="3837" width="9.140625" style="11"/>
+    <col min="3838" max="3838" width="5" style="11" customWidth="1"/>
+    <col min="3839" max="3839" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3840" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.28515625" style="11" customWidth="1"/>
+    <col min="3843" max="3843" width="84.42578125" style="11" customWidth="1"/>
+    <col min="3844" max="4093" width="9.140625" style="11"/>
+    <col min="4094" max="4094" width="5" style="11" customWidth="1"/>
+    <col min="4095" max="4095" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4096" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.28515625" style="11" customWidth="1"/>
+    <col min="4099" max="4099" width="84.42578125" style="11" customWidth="1"/>
+    <col min="4100" max="4349" width="9.140625" style="11"/>
+    <col min="4350" max="4350" width="5" style="11" customWidth="1"/>
+    <col min="4351" max="4351" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4352" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.28515625" style="11" customWidth="1"/>
+    <col min="4355" max="4355" width="84.42578125" style="11" customWidth="1"/>
+    <col min="4356" max="4605" width="9.140625" style="11"/>
+    <col min="4606" max="4606" width="5" style="11" customWidth="1"/>
+    <col min="4607" max="4607" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4608" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.28515625" style="11" customWidth="1"/>
+    <col min="4611" max="4611" width="84.42578125" style="11" customWidth="1"/>
+    <col min="4612" max="4861" width="9.140625" style="11"/>
+    <col min="4862" max="4862" width="5" style="11" customWidth="1"/>
+    <col min="4863" max="4863" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4864" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.28515625" style="11" customWidth="1"/>
+    <col min="4867" max="4867" width="84.42578125" style="11" customWidth="1"/>
+    <col min="4868" max="5117" width="9.140625" style="11"/>
+    <col min="5118" max="5118" width="5" style="11" customWidth="1"/>
+    <col min="5119" max="5119" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5120" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.28515625" style="11" customWidth="1"/>
+    <col min="5123" max="5123" width="84.42578125" style="11" customWidth="1"/>
+    <col min="5124" max="5373" width="9.140625" style="11"/>
+    <col min="5374" max="5374" width="5" style="11" customWidth="1"/>
+    <col min="5375" max="5375" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5376" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.28515625" style="11" customWidth="1"/>
+    <col min="5379" max="5379" width="84.42578125" style="11" customWidth="1"/>
+    <col min="5380" max="5629" width="9.140625" style="11"/>
+    <col min="5630" max="5630" width="5" style="11" customWidth="1"/>
+    <col min="5631" max="5631" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5632" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.28515625" style="11" customWidth="1"/>
+    <col min="5635" max="5635" width="84.42578125" style="11" customWidth="1"/>
+    <col min="5636" max="5885" width="9.140625" style="11"/>
+    <col min="5886" max="5886" width="5" style="11" customWidth="1"/>
+    <col min="5887" max="5887" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5888" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.28515625" style="11" customWidth="1"/>
+    <col min="5891" max="5891" width="84.42578125" style="11" customWidth="1"/>
+    <col min="5892" max="6141" width="9.140625" style="11"/>
+    <col min="6142" max="6142" width="5" style="11" customWidth="1"/>
+    <col min="6143" max="6143" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6144" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.28515625" style="11" customWidth="1"/>
+    <col min="6147" max="6147" width="84.42578125" style="11" customWidth="1"/>
+    <col min="6148" max="6397" width="9.140625" style="11"/>
+    <col min="6398" max="6398" width="5" style="11" customWidth="1"/>
+    <col min="6399" max="6399" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6400" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.28515625" style="11" customWidth="1"/>
+    <col min="6403" max="6403" width="84.42578125" style="11" customWidth="1"/>
+    <col min="6404" max="6653" width="9.140625" style="11"/>
+    <col min="6654" max="6654" width="5" style="11" customWidth="1"/>
+    <col min="6655" max="6655" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6656" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.28515625" style="11" customWidth="1"/>
+    <col min="6659" max="6659" width="84.42578125" style="11" customWidth="1"/>
+    <col min="6660" max="6909" width="9.140625" style="11"/>
+    <col min="6910" max="6910" width="5" style="11" customWidth="1"/>
+    <col min="6911" max="6911" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6912" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.28515625" style="11" customWidth="1"/>
+    <col min="6915" max="6915" width="84.42578125" style="11" customWidth="1"/>
+    <col min="6916" max="7165" width="9.140625" style="11"/>
+    <col min="7166" max="7166" width="5" style="11" customWidth="1"/>
+    <col min="7167" max="7167" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7168" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.28515625" style="11" customWidth="1"/>
+    <col min="7171" max="7171" width="84.42578125" style="11" customWidth="1"/>
+    <col min="7172" max="7421" width="9.140625" style="11"/>
+    <col min="7422" max="7422" width="5" style="11" customWidth="1"/>
+    <col min="7423" max="7423" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7424" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.28515625" style="11" customWidth="1"/>
+    <col min="7427" max="7427" width="84.42578125" style="11" customWidth="1"/>
+    <col min="7428" max="7677" width="9.140625" style="11"/>
+    <col min="7678" max="7678" width="5" style="11" customWidth="1"/>
+    <col min="7679" max="7679" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7680" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.28515625" style="11" customWidth="1"/>
+    <col min="7683" max="7683" width="84.42578125" style="11" customWidth="1"/>
+    <col min="7684" max="7933" width="9.140625" style="11"/>
+    <col min="7934" max="7934" width="5" style="11" customWidth="1"/>
+    <col min="7935" max="7935" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7936" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.28515625" style="11" customWidth="1"/>
+    <col min="7939" max="7939" width="84.42578125" style="11" customWidth="1"/>
+    <col min="7940" max="8189" width="9.140625" style="11"/>
+    <col min="8190" max="8190" width="5" style="11" customWidth="1"/>
+    <col min="8191" max="8191" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8192" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.28515625" style="11" customWidth="1"/>
+    <col min="8195" max="8195" width="84.42578125" style="11" customWidth="1"/>
+    <col min="8196" max="8445" width="9.140625" style="11"/>
+    <col min="8446" max="8446" width="5" style="11" customWidth="1"/>
+    <col min="8447" max="8447" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8448" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.28515625" style="11" customWidth="1"/>
+    <col min="8451" max="8451" width="84.42578125" style="11" customWidth="1"/>
+    <col min="8452" max="8701" width="9.140625" style="11"/>
+    <col min="8702" max="8702" width="5" style="11" customWidth="1"/>
+    <col min="8703" max="8703" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8704" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.28515625" style="11" customWidth="1"/>
+    <col min="8707" max="8707" width="84.42578125" style="11" customWidth="1"/>
+    <col min="8708" max="8957" width="9.140625" style="11"/>
+    <col min="8958" max="8958" width="5" style="11" customWidth="1"/>
+    <col min="8959" max="8959" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8960" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.28515625" style="11" customWidth="1"/>
+    <col min="8963" max="8963" width="84.42578125" style="11" customWidth="1"/>
+    <col min="8964" max="9213" width="9.140625" style="11"/>
+    <col min="9214" max="9214" width="5" style="11" customWidth="1"/>
+    <col min="9215" max="9215" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9216" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.28515625" style="11" customWidth="1"/>
+    <col min="9219" max="9219" width="84.42578125" style="11" customWidth="1"/>
+    <col min="9220" max="9469" width="9.140625" style="11"/>
+    <col min="9470" max="9470" width="5" style="11" customWidth="1"/>
+    <col min="9471" max="9471" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9472" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.28515625" style="11" customWidth="1"/>
+    <col min="9475" max="9475" width="84.42578125" style="11" customWidth="1"/>
+    <col min="9476" max="9725" width="9.140625" style="11"/>
+    <col min="9726" max="9726" width="5" style="11" customWidth="1"/>
+    <col min="9727" max="9727" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9728" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.28515625" style="11" customWidth="1"/>
+    <col min="9731" max="9731" width="84.42578125" style="11" customWidth="1"/>
+    <col min="9732" max="9981" width="9.140625" style="11"/>
+    <col min="9982" max="9982" width="5" style="11" customWidth="1"/>
+    <col min="9983" max="9983" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9984" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.28515625" style="11" customWidth="1"/>
+    <col min="9987" max="9987" width="84.42578125" style="11" customWidth="1"/>
+    <col min="9988" max="10237" width="9.140625" style="11"/>
+    <col min="10238" max="10238" width="5" style="11" customWidth="1"/>
+    <col min="10239" max="10239" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10240" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.28515625" style="11" customWidth="1"/>
+    <col min="10243" max="10243" width="84.42578125" style="11" customWidth="1"/>
+    <col min="10244" max="10493" width="9.140625" style="11"/>
+    <col min="10494" max="10494" width="5" style="11" customWidth="1"/>
+    <col min="10495" max="10495" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10496" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.28515625" style="11" customWidth="1"/>
+    <col min="10499" max="10499" width="84.42578125" style="11" customWidth="1"/>
+    <col min="10500" max="10749" width="9.140625" style="11"/>
+    <col min="10750" max="10750" width="5" style="11" customWidth="1"/>
+    <col min="10751" max="10751" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10752" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.28515625" style="11" customWidth="1"/>
+    <col min="10755" max="10755" width="84.42578125" style="11" customWidth="1"/>
+    <col min="10756" max="11005" width="9.140625" style="11"/>
+    <col min="11006" max="11006" width="5" style="11" customWidth="1"/>
+    <col min="11007" max="11007" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11008" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.28515625" style="11" customWidth="1"/>
+    <col min="11011" max="11011" width="84.42578125" style="11" customWidth="1"/>
+    <col min="11012" max="11261" width="9.140625" style="11"/>
+    <col min="11262" max="11262" width="5" style="11" customWidth="1"/>
+    <col min="11263" max="11263" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11264" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.28515625" style="11" customWidth="1"/>
+    <col min="11267" max="11267" width="84.42578125" style="11" customWidth="1"/>
+    <col min="11268" max="11517" width="9.140625" style="11"/>
+    <col min="11518" max="11518" width="5" style="11" customWidth="1"/>
+    <col min="11519" max="11519" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11520" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.28515625" style="11" customWidth="1"/>
+    <col min="11523" max="11523" width="84.42578125" style="11" customWidth="1"/>
+    <col min="11524" max="11773" width="9.140625" style="11"/>
+    <col min="11774" max="11774" width="5" style="11" customWidth="1"/>
+    <col min="11775" max="11775" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11776" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.28515625" style="11" customWidth="1"/>
+    <col min="11779" max="11779" width="84.42578125" style="11" customWidth="1"/>
+    <col min="11780" max="12029" width="9.140625" style="11"/>
+    <col min="12030" max="12030" width="5" style="11" customWidth="1"/>
+    <col min="12031" max="12031" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12032" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.28515625" style="11" customWidth="1"/>
+    <col min="12035" max="12035" width="84.42578125" style="11" customWidth="1"/>
+    <col min="12036" max="12285" width="9.140625" style="11"/>
+    <col min="12286" max="12286" width="5" style="11" customWidth="1"/>
+    <col min="12287" max="12287" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12288" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.28515625" style="11" customWidth="1"/>
+    <col min="12291" max="12291" width="84.42578125" style="11" customWidth="1"/>
+    <col min="12292" max="12541" width="9.140625" style="11"/>
+    <col min="12542" max="12542" width="5" style="11" customWidth="1"/>
+    <col min="12543" max="12543" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12544" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.28515625" style="11" customWidth="1"/>
+    <col min="12547" max="12547" width="84.42578125" style="11" customWidth="1"/>
+    <col min="12548" max="12797" width="9.140625" style="11"/>
+    <col min="12798" max="12798" width="5" style="11" customWidth="1"/>
+    <col min="12799" max="12799" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12800" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.28515625" style="11" customWidth="1"/>
+    <col min="12803" max="12803" width="84.42578125" style="11" customWidth="1"/>
+    <col min="12804" max="13053" width="9.140625" style="11"/>
+    <col min="13054" max="13054" width="5" style="11" customWidth="1"/>
+    <col min="13055" max="13055" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13056" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.28515625" style="11" customWidth="1"/>
+    <col min="13059" max="13059" width="84.42578125" style="11" customWidth="1"/>
+    <col min="13060" max="13309" width="9.140625" style="11"/>
+    <col min="13310" max="13310" width="5" style="11" customWidth="1"/>
+    <col min="13311" max="13311" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13312" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.28515625" style="11" customWidth="1"/>
+    <col min="13315" max="13315" width="84.42578125" style="11" customWidth="1"/>
+    <col min="13316" max="13565" width="9.140625" style="11"/>
+    <col min="13566" max="13566" width="5" style="11" customWidth="1"/>
+    <col min="13567" max="13567" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13568" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.28515625" style="11" customWidth="1"/>
+    <col min="13571" max="13571" width="84.42578125" style="11" customWidth="1"/>
+    <col min="13572" max="13821" width="9.140625" style="11"/>
+    <col min="13822" max="13822" width="5" style="11" customWidth="1"/>
+    <col min="13823" max="13823" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13824" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.28515625" style="11" customWidth="1"/>
+    <col min="13827" max="13827" width="84.42578125" style="11" customWidth="1"/>
+    <col min="13828" max="14077" width="9.140625" style="11"/>
+    <col min="14078" max="14078" width="5" style="11" customWidth="1"/>
+    <col min="14079" max="14079" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14080" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.28515625" style="11" customWidth="1"/>
+    <col min="14083" max="14083" width="84.42578125" style="11" customWidth="1"/>
+    <col min="14084" max="14333" width="9.140625" style="11"/>
+    <col min="14334" max="14334" width="5" style="11" customWidth="1"/>
+    <col min="14335" max="14335" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14336" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.28515625" style="11" customWidth="1"/>
+    <col min="14339" max="14339" width="84.42578125" style="11" customWidth="1"/>
+    <col min="14340" max="14589" width="9.140625" style="11"/>
+    <col min="14590" max="14590" width="5" style="11" customWidth="1"/>
+    <col min="14591" max="14591" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14592" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.28515625" style="11" customWidth="1"/>
+    <col min="14595" max="14595" width="84.42578125" style="11" customWidth="1"/>
+    <col min="14596" max="14845" width="9.140625" style="11"/>
+    <col min="14846" max="14846" width="5" style="11" customWidth="1"/>
+    <col min="14847" max="14847" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14848" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.28515625" style="11" customWidth="1"/>
+    <col min="14851" max="14851" width="84.42578125" style="11" customWidth="1"/>
+    <col min="14852" max="15101" width="9.140625" style="11"/>
+    <col min="15102" max="15102" width="5" style="11" customWidth="1"/>
+    <col min="15103" max="15103" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15104" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.28515625" style="11" customWidth="1"/>
+    <col min="15107" max="15107" width="84.42578125" style="11" customWidth="1"/>
+    <col min="15108" max="15357" width="9.140625" style="11"/>
+    <col min="15358" max="15358" width="5" style="11" customWidth="1"/>
+    <col min="15359" max="15359" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15360" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.28515625" style="11" customWidth="1"/>
+    <col min="15363" max="15363" width="84.42578125" style="11" customWidth="1"/>
+    <col min="15364" max="15613" width="9.140625" style="11"/>
+    <col min="15614" max="15614" width="5" style="11" customWidth="1"/>
+    <col min="15615" max="15615" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15616" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.28515625" style="11" customWidth="1"/>
+    <col min="15619" max="15619" width="84.42578125" style="11" customWidth="1"/>
+    <col min="15620" max="15869" width="9.140625" style="11"/>
+    <col min="15870" max="15870" width="5" style="11" customWidth="1"/>
+    <col min="15871" max="15871" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15872" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.28515625" style="11" customWidth="1"/>
+    <col min="15875" max="15875" width="84.42578125" style="11" customWidth="1"/>
+    <col min="15876" max="16125" width="9.140625" style="11"/>
+    <col min="16126" max="16126" width="5" style="11" customWidth="1"/>
+    <col min="16127" max="16127" width="38.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16128" width="85" style="11" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.28515625" style="11" customWidth="1"/>
+    <col min="16131" max="16131" width="84.42578125" style="11" customWidth="1"/>
+    <col min="16132" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="B3" s="8" t="s">
         <v>114</v>
       </c>
+      <c r="C3" s="48"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
+    <row r="4" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C4" s="12" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="105">
-      <c r="A4" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    <row r="5" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="B5" s="8" t="s">
         <v>119</v>
       </c>
+      <c r="C5" s="12" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="143.25" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>122</v>
+    <row r="6" spans="1:6" ht="221.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:6" ht="221.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>163</v>
-      </c>
+      <c r="C7" s="49"/>
     </row>
-    <row r="7" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="36"/>
+    <row r="8" spans="1:6" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="100.5" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="36"/>
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="14"/>
+      <c r="F9" s="11"/>
     </row>
-    <row r="9" spans="1:6" customFormat="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="21"/>
-      <c r="F9" s="18"/>
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="14"/>
+      <c r="F10" s="11"/>
     </row>
-    <row r="10" spans="1:6" customFormat="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="21"/>
-      <c r="F10" s="18"/>
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="14"/>
+      <c r="F11" s="11"/>
     </row>
-    <row r="11" spans="1:6" customFormat="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="21"/>
-      <c r="F11" s="18"/>
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="F12" s="11"/>
     </row>
-    <row r="12" spans="1:6" customFormat="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="21"/>
-      <c r="F12" s="18"/>
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="14"/>
+      <c r="F13" s="11"/>
     </row>
-    <row r="13" spans="1:6" customFormat="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="21"/>
-      <c r="F13" s="18"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
     </row>
-    <row r="14" spans="1:6" customFormat="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="21"/>
-      <c r="F14" s="18"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
     </row>
-    <row r="15" spans="1:6" customFormat="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="21"/>
-      <c r="F15" s="18"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="17"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="17"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="17"/>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="54" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="37"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="33">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="33">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="33">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="33">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:B7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>